--- a/Feb'2021/28.02.2021/Bank Statement..xlsx
+++ b/Feb'2021/28.02.2021/Bank Statement..xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Extra Stock" sheetId="49" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="51" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -737,12 +737,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2531,6 +2531,63 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2541,63 +2598,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2768,6 +2768,11 @@
       <color rgb="FFD8D8D8"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2911,6 +2916,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2945,6 +2951,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3120,15 +3127,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X317"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="95" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="95"/>
@@ -3148,68 +3155,68 @@
     <col min="18" max="16384" width="9.140625" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="255" t="s">
+    <row r="1" spans="1:24" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="249" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="255"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="255"/>
-    </row>
-    <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="256" t="s">
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="256"/>
-      <c r="O2" s="256"/>
-      <c r="P2" s="256"/>
-      <c r="Q2" s="256"/>
-    </row>
-    <row r="3" spans="1:24" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="263" t="s">
+      <c r="B2" s="250"/>
+      <c r="C2" s="250"/>
+      <c r="D2" s="250"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="250"/>
+      <c r="G2" s="250"/>
+      <c r="H2" s="250"/>
+      <c r="I2" s="250"/>
+      <c r="J2" s="250"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="250"/>
+      <c r="M2" s="250"/>
+      <c r="N2" s="250"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="250"/>
+      <c r="Q2" s="250"/>
+    </row>
+    <row r="3" spans="1:24" s="97" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="259" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="264"/>
-      <c r="L3" s="264"/>
-      <c r="M3" s="264"/>
-      <c r="N3" s="264"/>
-      <c r="O3" s="264"/>
-      <c r="P3" s="264"/>
-      <c r="Q3" s="265"/>
+      <c r="B3" s="260"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="260"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="260"/>
+      <c r="I3" s="260"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="260"/>
+      <c r="M3" s="260"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="260"/>
+      <c r="P3" s="260"/>
+      <c r="Q3" s="261"/>
       <c r="S3" s="98"/>
       <c r="T3" s="99"/>
       <c r="U3" s="99"/>
@@ -3217,53 +3224,53 @@
       <c r="W3" s="99"/>
       <c r="X3" s="100"/>
     </row>
-    <row r="4" spans="1:24" s="100" customFormat="1">
-      <c r="A4" s="257" t="s">
+    <row r="4" spans="1:24" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="259" t="s">
+      <c r="B4" s="253" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="259" t="s">
+      <c r="C4" s="253" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="253" t="s">
+      <c r="D4" s="255" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="253" t="s">
+      <c r="E4" s="255" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="253" t="s">
+      <c r="F4" s="255" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="253" t="s">
+      <c r="G4" s="255" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="253" t="s">
+      <c r="H4" s="255" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="253" t="s">
+      <c r="I4" s="255" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="253" t="s">
+      <c r="J4" s="255" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="266" t="s">
+      <c r="K4" s="262" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="268" t="s">
+      <c r="L4" s="264" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="270" t="s">
+      <c r="M4" s="266" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="249" t="s">
+      <c r="N4" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="251" t="s">
+      <c r="O4" s="270" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="261" t="s">
+      <c r="P4" s="257" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="192" t="s">
@@ -3275,23 +3282,23 @@
       <c r="V4" s="99"/>
       <c r="W4" s="99"/>
     </row>
-    <row r="5" spans="1:24" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="258"/>
-      <c r="B5" s="260"/>
-      <c r="C5" s="260"/>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="254"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="254"/>
-      <c r="J5" s="254"/>
-      <c r="K5" s="267"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="271"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="252"/>
-      <c r="P5" s="262"/>
+    <row r="5" spans="1:24" s="100" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="252"/>
+      <c r="B5" s="254"/>
+      <c r="C5" s="254"/>
+      <c r="D5" s="256"/>
+      <c r="E5" s="256"/>
+      <c r="F5" s="256"/>
+      <c r="G5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="256"/>
+      <c r="J5" s="256"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="265"/>
+      <c r="M5" s="267"/>
+      <c r="N5" s="269"/>
+      <c r="O5" s="271"/>
+      <c r="P5" s="258"/>
       <c r="Q5" s="193" t="s">
         <v>36</v>
       </c>
@@ -3302,7 +3309,7 @@
       <c r="W5" s="103"/>
       <c r="X5" s="104"/>
     </row>
-    <row r="6" spans="1:24" s="104" customFormat="1">
+    <row r="6" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="201" t="s">
         <v>145</v>
       </c>
@@ -3334,7 +3341,7 @@
       <c r="V6" s="103"/>
       <c r="W6" s="99"/>
     </row>
-    <row r="7" spans="1:24" s="104" customFormat="1">
+    <row r="7" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="201" t="s">
         <v>146</v>
       </c>
@@ -3368,7 +3375,7 @@
       <c r="V7" s="103"/>
       <c r="W7" s="103"/>
     </row>
-    <row r="8" spans="1:24" s="104" customFormat="1">
+    <row r="8" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="201" t="s">
         <v>148</v>
       </c>
@@ -3406,7 +3413,7 @@
       <c r="V8" s="103"/>
       <c r="W8" s="99"/>
     </row>
-    <row r="9" spans="1:24" s="104" customFormat="1">
+    <row r="9" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="201" t="s">
         <v>150</v>
       </c>
@@ -3442,7 +3449,7 @@
       <c r="V9" s="103"/>
       <c r="W9" s="103"/>
     </row>
-    <row r="10" spans="1:24" s="104" customFormat="1">
+    <row r="10" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="201" t="s">
         <v>152</v>
       </c>
@@ -3474,7 +3481,7 @@
       <c r="V10" s="103"/>
       <c r="W10" s="99"/>
     </row>
-    <row r="11" spans="1:24" s="104" customFormat="1">
+    <row r="11" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="201" t="s">
         <v>155</v>
       </c>
@@ -3506,7 +3513,7 @@
       <c r="V11" s="103"/>
       <c r="W11" s="103"/>
     </row>
-    <row r="12" spans="1:24" s="104" customFormat="1">
+    <row r="12" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="201" t="s">
         <v>156</v>
       </c>
@@ -3538,7 +3545,7 @@
       <c r="V12" s="103"/>
       <c r="W12" s="99"/>
     </row>
-    <row r="13" spans="1:24" s="104" customFormat="1">
+    <row r="13" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="201" t="s">
         <v>158</v>
       </c>
@@ -3572,7 +3579,7 @@
       <c r="V13" s="103"/>
       <c r="W13" s="103"/>
     </row>
-    <row r="14" spans="1:24" s="104" customFormat="1">
+    <row r="14" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="201" t="s">
         <v>159</v>
       </c>
@@ -3604,7 +3611,7 @@
       <c r="V14" s="103"/>
       <c r="W14" s="99"/>
     </row>
-    <row r="15" spans="1:24" s="104" customFormat="1">
+    <row r="15" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="201" t="s">
         <v>160</v>
       </c>
@@ -3636,7 +3643,7 @@
       <c r="V15" s="103"/>
       <c r="W15" s="103"/>
     </row>
-    <row r="16" spans="1:24" s="104" customFormat="1">
+    <row r="16" spans="1:24" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="201" t="s">
         <v>161</v>
       </c>
@@ -3668,7 +3675,7 @@
       <c r="V16" s="103"/>
       <c r="W16" s="99"/>
     </row>
-    <row r="17" spans="1:23" s="104" customFormat="1">
+    <row r="17" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="201" t="s">
         <v>165</v>
       </c>
@@ -3702,7 +3709,7 @@
       <c r="V17" s="103"/>
       <c r="W17" s="103"/>
     </row>
-    <row r="18" spans="1:23" s="104" customFormat="1">
+    <row r="18" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="201" t="s">
         <v>166</v>
       </c>
@@ -3736,7 +3743,7 @@
       <c r="V18" s="103"/>
       <c r="W18" s="99"/>
     </row>
-    <row r="19" spans="1:23" s="104" customFormat="1">
+    <row r="19" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="201" t="s">
         <v>167</v>
       </c>
@@ -3768,7 +3775,7 @@
       <c r="V19" s="103"/>
       <c r="W19" s="103"/>
     </row>
-    <row r="20" spans="1:23" s="104" customFormat="1">
+    <row r="20" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="201" t="s">
         <v>170</v>
       </c>
@@ -3800,7 +3807,7 @@
       <c r="V20" s="103"/>
       <c r="W20" s="99"/>
     </row>
-    <row r="21" spans="1:23" s="104" customFormat="1">
+    <row r="21" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="201" t="s">
         <v>171</v>
       </c>
@@ -3835,7 +3842,7 @@
       <c r="V21" s="110"/>
       <c r="W21" s="110"/>
     </row>
-    <row r="22" spans="1:23" s="106" customFormat="1">
+    <row r="22" spans="1:23" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="201" t="s">
         <v>173</v>
       </c>
@@ -3867,7 +3874,7 @@
       <c r="R22" s="109"/>
       <c r="S22" s="67"/>
     </row>
-    <row r="23" spans="1:23" s="104" customFormat="1">
+    <row r="23" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="201" t="s">
         <v>174</v>
       </c>
@@ -3897,7 +3904,7 @@
       <c r="R23" s="105"/>
       <c r="S23" s="67"/>
     </row>
-    <row r="24" spans="1:23" s="104" customFormat="1">
+    <row r="24" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="206" t="s">
         <v>175</v>
       </c>
@@ -3925,7 +3932,7 @@
       <c r="R24" s="105"/>
       <c r="S24" s="67"/>
     </row>
-    <row r="25" spans="1:23" s="104" customFormat="1">
+    <row r="25" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="206" t="s">
         <v>176</v>
       </c>
@@ -3957,7 +3964,7 @@
       <c r="T25" s="111"/>
       <c r="U25" s="111"/>
     </row>
-    <row r="26" spans="1:23" s="104" customFormat="1">
+    <row r="26" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="206" t="s">
         <v>177</v>
       </c>
@@ -3989,7 +3996,7 @@
       <c r="T26" s="112"/>
       <c r="U26" s="112"/>
     </row>
-    <row r="27" spans="1:23" s="104" customFormat="1">
+    <row r="27" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="206" t="s">
         <v>178</v>
       </c>
@@ -4019,7 +4026,7 @@
       <c r="T27" s="111"/>
       <c r="U27" s="111"/>
     </row>
-    <row r="28" spans="1:23" s="104" customFormat="1">
+    <row r="28" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="206" t="s">
         <v>181</v>
       </c>
@@ -4046,7 +4053,7 @@
       </c>
       <c r="R28" s="105"/>
     </row>
-    <row r="29" spans="1:23" s="106" customFormat="1">
+    <row r="29" spans="1:23" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="206" t="s">
         <v>183</v>
       </c>
@@ -4083,7 +4090,7 @@
       </c>
       <c r="R29" s="109"/>
     </row>
-    <row r="30" spans="1:23" s="104" customFormat="1">
+    <row r="30" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="206"/>
       <c r="B30" s="205"/>
       <c r="C30" s="206"/>
@@ -4106,7 +4113,7 @@
       </c>
       <c r="R30" s="105"/>
     </row>
-    <row r="31" spans="1:23" s="104" customFormat="1">
+    <row r="31" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="206"/>
       <c r="B31" s="205"/>
       <c r="C31" s="206"/>
@@ -4129,7 +4136,7 @@
       </c>
       <c r="R31" s="105"/>
     </row>
-    <row r="32" spans="1:23" s="104" customFormat="1">
+    <row r="32" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="206"/>
       <c r="B32" s="205"/>
       <c r="C32" s="206"/>
@@ -4152,7 +4159,7 @@
       </c>
       <c r="R32" s="105"/>
     </row>
-    <row r="33" spans="1:18" s="104" customFormat="1" ht="15.75" thickBot="1">
+    <row r="33" spans="1:18" s="104" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="206"/>
       <c r="B33" s="210"/>
       <c r="C33" s="211"/>
@@ -4175,7 +4182,7 @@
       </c>
       <c r="R33" s="105"/>
     </row>
-    <row r="34" spans="1:18" s="113" customFormat="1" ht="15.75" thickBot="1">
+    <row r="34" spans="1:18" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="196" t="s">
         <v>38</v>
       </c>
@@ -4244,7 +4251,7 @@
         <v>57889</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="114"/>
       <c r="B35" s="115"/>
       <c r="C35" s="115"/>
@@ -4263,1972 +4270,1972 @@
       <c r="P35" s="116"/>
       <c r="Q35" s="117"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F36" s="118"/>
       <c r="G36" s="118"/>
       <c r="H36" s="118"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="118"/>
       <c r="B37" s="118"/>
       <c r="C37" s="118"/>
       <c r="D37" s="118"/>
       <c r="E37" s="118"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="118"/>
       <c r="B38" s="118"/>
       <c r="C38" s="118"/>
       <c r="D38" s="118"/>
       <c r="E38" s="118"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="118"/>
       <c r="B39" s="118"/>
       <c r="C39" s="118"/>
       <c r="D39" s="118"/>
       <c r="E39" s="118"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="118"/>
       <c r="B40" s="118"/>
       <c r="C40" s="118"/>
       <c r="D40" s="118"/>
       <c r="E40" s="118"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="118"/>
       <c r="B41" s="118"/>
       <c r="C41" s="118"/>
       <c r="D41" s="118"/>
       <c r="E41" s="118"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="118"/>
       <c r="B42" s="118"/>
       <c r="C42" s="118"/>
       <c r="D42" s="118"/>
       <c r="E42" s="118"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="118"/>
       <c r="B43" s="118"/>
       <c r="C43" s="118"/>
       <c r="D43" s="118"/>
       <c r="E43" s="118"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="118"/>
       <c r="B44" s="118"/>
       <c r="C44" s="118"/>
       <c r="D44" s="118"/>
       <c r="E44" s="118"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="118"/>
       <c r="B45" s="118"/>
       <c r="C45" s="118"/>
       <c r="D45" s="118"/>
       <c r="E45" s="118"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="118"/>
       <c r="B46" s="118"/>
       <c r="C46" s="118"/>
       <c r="D46" s="118"/>
       <c r="E46" s="118"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="118"/>
       <c r="B47" s="118"/>
       <c r="C47" s="118"/>
       <c r="D47" s="118"/>
       <c r="E47" s="118"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="118"/>
       <c r="B48" s="118"/>
       <c r="C48" s="118"/>
       <c r="D48" s="118"/>
       <c r="E48" s="118"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="118"/>
       <c r="B49" s="118"/>
       <c r="C49" s="118"/>
       <c r="D49" s="118"/>
       <c r="E49" s="118"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="118"/>
       <c r="B50" s="118"/>
       <c r="C50" s="118"/>
       <c r="D50" s="118"/>
       <c r="E50" s="118"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="118"/>
       <c r="B51" s="118"/>
       <c r="C51" s="118"/>
       <c r="D51" s="118"/>
       <c r="E51" s="118"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="118"/>
       <c r="B52" s="118"/>
       <c r="C52" s="118"/>
       <c r="D52" s="118"/>
       <c r="E52" s="118"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="118"/>
       <c r="B53" s="118"/>
       <c r="C53" s="118"/>
       <c r="D53" s="118"/>
       <c r="E53" s="118"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="118"/>
       <c r="B54" s="118"/>
       <c r="C54" s="118"/>
       <c r="D54" s="118"/>
       <c r="E54" s="118"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="118"/>
       <c r="B55" s="118"/>
       <c r="C55" s="118"/>
       <c r="D55" s="118"/>
       <c r="E55" s="118"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="118"/>
       <c r="B56" s="118"/>
       <c r="C56" s="118"/>
       <c r="D56" s="118"/>
       <c r="E56" s="118"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="118"/>
       <c r="B57" s="118"/>
       <c r="C57" s="118"/>
       <c r="D57" s="118"/>
       <c r="E57" s="118"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="118"/>
       <c r="B58" s="118"/>
       <c r="C58" s="118"/>
       <c r="D58" s="118"/>
       <c r="E58" s="118"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="118"/>
       <c r="B59" s="118"/>
       <c r="C59" s="118"/>
       <c r="D59" s="118"/>
       <c r="E59" s="118"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="118"/>
       <c r="B60" s="118"/>
       <c r="C60" s="118"/>
       <c r="D60" s="118"/>
       <c r="E60" s="118"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="118"/>
       <c r="B61" s="118"/>
       <c r="C61" s="118"/>
       <c r="D61" s="118"/>
       <c r="E61" s="118"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="118"/>
       <c r="B62" s="118"/>
       <c r="C62" s="118"/>
       <c r="D62" s="118"/>
       <c r="E62" s="118"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="118"/>
       <c r="B63" s="118"/>
       <c r="C63" s="118"/>
       <c r="D63" s="118"/>
       <c r="E63" s="118"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="118"/>
       <c r="B64" s="118"/>
       <c r="C64" s="118"/>
       <c r="D64" s="118"/>
       <c r="E64" s="118"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="118"/>
       <c r="B65" s="118"/>
       <c r="C65" s="118"/>
       <c r="D65" s="118"/>
       <c r="E65" s="118"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="118"/>
       <c r="B66" s="118"/>
       <c r="C66" s="118"/>
       <c r="D66" s="118"/>
       <c r="E66" s="118"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="118"/>
       <c r="B67" s="118"/>
       <c r="C67" s="118"/>
       <c r="D67" s="118"/>
       <c r="E67" s="118"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="118"/>
       <c r="B68" s="118"/>
       <c r="C68" s="118"/>
       <c r="D68" s="118"/>
       <c r="E68" s="118"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="118"/>
       <c r="B69" s="118"/>
       <c r="C69" s="118"/>
       <c r="D69" s="118"/>
       <c r="E69" s="118"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="118"/>
       <c r="B70" s="118"/>
       <c r="C70" s="118"/>
       <c r="D70" s="118"/>
       <c r="E70" s="118"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="118"/>
       <c r="B71" s="118"/>
       <c r="C71" s="118"/>
       <c r="D71" s="118"/>
       <c r="E71" s="118"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="118"/>
       <c r="B72" s="118"/>
       <c r="C72" s="118"/>
       <c r="D72" s="118"/>
       <c r="E72" s="118"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="118"/>
       <c r="B73" s="118"/>
       <c r="C73" s="118"/>
       <c r="D73" s="118"/>
       <c r="E73" s="118"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="118"/>
       <c r="B74" s="118"/>
       <c r="C74" s="118"/>
       <c r="D74" s="118"/>
       <c r="E74" s="118"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="118"/>
       <c r="B75" s="118"/>
       <c r="C75" s="118"/>
       <c r="D75" s="118"/>
       <c r="E75" s="118"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="118"/>
       <c r="B76" s="118"/>
       <c r="C76" s="118"/>
       <c r="D76" s="118"/>
       <c r="E76" s="118"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="118"/>
       <c r="B77" s="118"/>
       <c r="C77" s="118"/>
       <c r="D77" s="118"/>
       <c r="E77" s="118"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="118"/>
       <c r="B78" s="118"/>
       <c r="C78" s="118"/>
       <c r="D78" s="118"/>
       <c r="E78" s="118"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="118"/>
       <c r="B79" s="118"/>
       <c r="C79" s="118"/>
       <c r="D79" s="118"/>
       <c r="E79" s="118"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="118"/>
       <c r="B80" s="118"/>
       <c r="C80" s="118"/>
       <c r="D80" s="118"/>
       <c r="E80" s="118"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="118"/>
       <c r="B81" s="118"/>
       <c r="C81" s="118"/>
       <c r="D81" s="118"/>
       <c r="E81" s="118"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="118"/>
       <c r="B82" s="118"/>
       <c r="C82" s="118"/>
       <c r="D82" s="118"/>
       <c r="E82" s="118"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="118"/>
       <c r="B83" s="118"/>
       <c r="C83" s="118"/>
       <c r="D83" s="118"/>
       <c r="E83" s="118"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="118"/>
       <c r="B84" s="118"/>
       <c r="C84" s="118"/>
       <c r="D84" s="118"/>
       <c r="E84" s="118"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="118"/>
       <c r="B85" s="118"/>
       <c r="C85" s="118"/>
       <c r="D85" s="118"/>
       <c r="E85" s="118"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="118"/>
       <c r="B86" s="118"/>
       <c r="C86" s="118"/>
       <c r="D86" s="118"/>
       <c r="E86" s="118"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="118"/>
       <c r="B87" s="118"/>
       <c r="C87" s="118"/>
       <c r="D87" s="118"/>
       <c r="E87" s="118"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="118"/>
       <c r="B88" s="118"/>
       <c r="C88" s="118"/>
       <c r="D88" s="118"/>
       <c r="E88" s="118"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="118"/>
       <c r="B89" s="118"/>
       <c r="C89" s="118"/>
       <c r="D89" s="118"/>
       <c r="E89" s="118"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="118"/>
       <c r="B90" s="118"/>
       <c r="C90" s="118"/>
       <c r="D90" s="118"/>
       <c r="E90" s="118"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="118"/>
       <c r="B91" s="118"/>
       <c r="C91" s="118"/>
       <c r="D91" s="118"/>
       <c r="E91" s="118"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="118"/>
       <c r="B92" s="118"/>
       <c r="C92" s="118"/>
       <c r="D92" s="118"/>
       <c r="E92" s="118"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="118"/>
       <c r="B93" s="118"/>
       <c r="C93" s="118"/>
       <c r="D93" s="118"/>
       <c r="E93" s="118"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="118"/>
       <c r="B94" s="118"/>
       <c r="C94" s="118"/>
       <c r="D94" s="118"/>
       <c r="E94" s="118"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="118"/>
       <c r="B95" s="118"/>
       <c r="C95" s="118"/>
       <c r="D95" s="118"/>
       <c r="E95" s="118"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="118"/>
       <c r="B96" s="118"/>
       <c r="C96" s="118"/>
       <c r="D96" s="118"/>
       <c r="E96" s="118"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="118"/>
       <c r="B97" s="118"/>
       <c r="C97" s="118"/>
       <c r="D97" s="118"/>
       <c r="E97" s="118"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="118"/>
       <c r="B98" s="118"/>
       <c r="C98" s="118"/>
       <c r="D98" s="118"/>
       <c r="E98" s="118"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="118"/>
       <c r="B99" s="118"/>
       <c r="C99" s="118"/>
       <c r="D99" s="118"/>
       <c r="E99" s="118"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="118"/>
       <c r="B100" s="118"/>
       <c r="C100" s="118"/>
       <c r="D100" s="118"/>
       <c r="E100" s="118"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="118"/>
       <c r="B101" s="118"/>
       <c r="C101" s="118"/>
       <c r="D101" s="118"/>
       <c r="E101" s="118"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="118"/>
       <c r="B102" s="118"/>
       <c r="C102" s="118"/>
       <c r="D102" s="118"/>
       <c r="E102" s="118"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="118"/>
       <c r="B103" s="118"/>
       <c r="C103" s="118"/>
       <c r="D103" s="118"/>
       <c r="E103" s="118"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="118"/>
       <c r="B104" s="118"/>
       <c r="C104" s="118"/>
       <c r="D104" s="118"/>
       <c r="E104" s="118"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="118"/>
       <c r="B105" s="118"/>
       <c r="C105" s="118"/>
       <c r="D105" s="118"/>
       <c r="E105" s="118"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="118"/>
       <c r="B106" s="118"/>
       <c r="C106" s="118"/>
       <c r="D106" s="118"/>
       <c r="E106" s="118"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="118"/>
       <c r="B107" s="118"/>
       <c r="C107" s="118"/>
       <c r="D107" s="118"/>
       <c r="E107" s="118"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="118"/>
       <c r="B108" s="118"/>
       <c r="C108" s="118"/>
       <c r="D108" s="118"/>
       <c r="E108" s="118"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="118"/>
       <c r="B109" s="118"/>
       <c r="C109" s="118"/>
       <c r="D109" s="118"/>
       <c r="E109" s="118"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="118"/>
       <c r="B110" s="118"/>
       <c r="C110" s="118"/>
       <c r="D110" s="118"/>
       <c r="E110" s="118"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="118"/>
       <c r="B111" s="118"/>
       <c r="C111" s="118"/>
       <c r="D111" s="118"/>
       <c r="E111" s="118"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="118"/>
       <c r="B112" s="118"/>
       <c r="C112" s="118"/>
       <c r="D112" s="118"/>
       <c r="E112" s="118"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="118"/>
       <c r="B113" s="118"/>
       <c r="C113" s="118"/>
       <c r="D113" s="118"/>
       <c r="E113" s="118"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="118"/>
       <c r="B114" s="118"/>
       <c r="C114" s="118"/>
       <c r="D114" s="118"/>
       <c r="E114" s="118"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="118"/>
       <c r="B115" s="118"/>
       <c r="C115" s="118"/>
       <c r="D115" s="118"/>
       <c r="E115" s="118"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="118"/>
       <c r="B116" s="118"/>
       <c r="C116" s="118"/>
       <c r="D116" s="118"/>
       <c r="E116" s="118"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="118"/>
       <c r="B117" s="118"/>
       <c r="C117" s="118"/>
       <c r="D117" s="118"/>
       <c r="E117" s="118"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="118"/>
       <c r="B118" s="118"/>
       <c r="C118" s="118"/>
       <c r="D118" s="118"/>
       <c r="E118" s="118"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="118"/>
       <c r="B119" s="118"/>
       <c r="C119" s="118"/>
       <c r="D119" s="118"/>
       <c r="E119" s="118"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="118"/>
       <c r="B120" s="118"/>
       <c r="C120" s="118"/>
       <c r="D120" s="118"/>
       <c r="E120" s="118"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="118"/>
       <c r="B121" s="118"/>
       <c r="C121" s="118"/>
       <c r="D121" s="118"/>
       <c r="E121" s="118"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="118"/>
       <c r="B122" s="118"/>
       <c r="C122" s="118"/>
       <c r="D122" s="118"/>
       <c r="E122" s="118"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="118"/>
       <c r="B123" s="118"/>
       <c r="C123" s="118"/>
       <c r="D123" s="118"/>
       <c r="E123" s="118"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="118"/>
       <c r="B124" s="118"/>
       <c r="C124" s="118"/>
       <c r="D124" s="118"/>
       <c r="E124" s="118"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="118"/>
       <c r="B125" s="118"/>
       <c r="C125" s="118"/>
       <c r="D125" s="118"/>
       <c r="E125" s="118"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="118"/>
       <c r="B126" s="118"/>
       <c r="C126" s="118"/>
       <c r="D126" s="118"/>
       <c r="E126" s="118"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="118"/>
       <c r="B127" s="118"/>
       <c r="C127" s="118"/>
       <c r="D127" s="118"/>
       <c r="E127" s="118"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="118"/>
       <c r="B128" s="118"/>
       <c r="C128" s="118"/>
       <c r="D128" s="118"/>
       <c r="E128" s="118"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="118"/>
       <c r="B129" s="118"/>
       <c r="C129" s="118"/>
       <c r="D129" s="118"/>
       <c r="E129" s="118"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="118"/>
       <c r="B130" s="118"/>
       <c r="C130" s="118"/>
       <c r="D130" s="118"/>
       <c r="E130" s="118"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="118"/>
       <c r="B131" s="118"/>
       <c r="C131" s="118"/>
       <c r="D131" s="118"/>
       <c r="E131" s="118"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="118"/>
       <c r="B132" s="118"/>
       <c r="C132" s="118"/>
       <c r="D132" s="118"/>
       <c r="E132" s="118"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="118"/>
       <c r="B133" s="118"/>
       <c r="C133" s="118"/>
       <c r="D133" s="118"/>
       <c r="E133" s="118"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="118"/>
       <c r="B134" s="118"/>
       <c r="C134" s="118"/>
       <c r="D134" s="118"/>
       <c r="E134" s="118"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="118"/>
       <c r="B135" s="118"/>
       <c r="C135" s="118"/>
       <c r="D135" s="118"/>
       <c r="E135" s="118"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="118"/>
       <c r="B136" s="118"/>
       <c r="C136" s="118"/>
       <c r="D136" s="118"/>
       <c r="E136" s="118"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="118"/>
       <c r="B137" s="118"/>
       <c r="C137" s="118"/>
       <c r="D137" s="118"/>
       <c r="E137" s="118"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="118"/>
       <c r="B138" s="118"/>
       <c r="C138" s="118"/>
       <c r="D138" s="118"/>
       <c r="E138" s="118"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="118"/>
       <c r="B139" s="118"/>
       <c r="C139" s="118"/>
       <c r="D139" s="118"/>
       <c r="E139" s="118"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="118"/>
       <c r="B140" s="118"/>
       <c r="C140" s="118"/>
       <c r="D140" s="118"/>
       <c r="E140" s="118"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="118"/>
       <c r="B141" s="118"/>
       <c r="C141" s="118"/>
       <c r="D141" s="118"/>
       <c r="E141" s="118"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="118"/>
       <c r="B142" s="118"/>
       <c r="C142" s="118"/>
       <c r="D142" s="118"/>
       <c r="E142" s="118"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="118"/>
       <c r="B143" s="118"/>
       <c r="C143" s="118"/>
       <c r="D143" s="118"/>
       <c r="E143" s="118"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="118"/>
       <c r="B144" s="118"/>
       <c r="C144" s="118"/>
       <c r="D144" s="118"/>
       <c r="E144" s="118"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="118"/>
       <c r="B145" s="118"/>
       <c r="C145" s="118"/>
       <c r="D145" s="118"/>
       <c r="E145" s="118"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="118"/>
       <c r="B146" s="118"/>
       <c r="C146" s="118"/>
       <c r="D146" s="118"/>
       <c r="E146" s="118"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="118"/>
       <c r="B147" s="118"/>
       <c r="C147" s="118"/>
       <c r="D147" s="118"/>
       <c r="E147" s="118"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="118"/>
       <c r="B148" s="118"/>
       <c r="C148" s="118"/>
       <c r="D148" s="118"/>
       <c r="E148" s="118"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="118"/>
       <c r="B149" s="118"/>
       <c r="C149" s="118"/>
       <c r="D149" s="118"/>
       <c r="E149" s="118"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="118"/>
       <c r="B150" s="118"/>
       <c r="C150" s="118"/>
       <c r="D150" s="118"/>
       <c r="E150" s="118"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="118"/>
       <c r="B151" s="118"/>
       <c r="C151" s="118"/>
       <c r="D151" s="118"/>
       <c r="E151" s="118"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="118"/>
       <c r="B152" s="118"/>
       <c r="C152" s="118"/>
       <c r="D152" s="118"/>
       <c r="E152" s="118"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="118"/>
       <c r="B153" s="118"/>
       <c r="C153" s="118"/>
       <c r="D153" s="118"/>
       <c r="E153" s="118"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="118"/>
       <c r="B154" s="118"/>
       <c r="C154" s="118"/>
       <c r="D154" s="118"/>
       <c r="E154" s="118"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="118"/>
       <c r="B155" s="118"/>
       <c r="C155" s="118"/>
       <c r="D155" s="118"/>
       <c r="E155" s="118"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="118"/>
       <c r="B156" s="118"/>
       <c r="C156" s="118"/>
       <c r="D156" s="118"/>
       <c r="E156" s="118"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="118"/>
       <c r="B157" s="118"/>
       <c r="C157" s="118"/>
       <c r="D157" s="118"/>
       <c r="E157" s="118"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="118"/>
       <c r="B158" s="118"/>
       <c r="C158" s="118"/>
       <c r="D158" s="118"/>
       <c r="E158" s="118"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="118"/>
       <c r="B159" s="118"/>
       <c r="C159" s="118"/>
       <c r="D159" s="118"/>
       <c r="E159" s="118"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="118"/>
       <c r="B160" s="118"/>
       <c r="C160" s="118"/>
       <c r="D160" s="118"/>
       <c r="E160" s="118"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="118"/>
       <c r="B161" s="118"/>
       <c r="C161" s="118"/>
       <c r="D161" s="118"/>
       <c r="E161" s="118"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="118"/>
       <c r="B162" s="118"/>
       <c r="C162" s="118"/>
       <c r="D162" s="118"/>
       <c r="E162" s="118"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="118"/>
       <c r="B163" s="118"/>
       <c r="C163" s="118"/>
       <c r="D163" s="118"/>
       <c r="E163" s="118"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="118"/>
       <c r="B164" s="118"/>
       <c r="C164" s="118"/>
       <c r="D164" s="118"/>
       <c r="E164" s="118"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="118"/>
       <c r="B165" s="118"/>
       <c r="C165" s="118"/>
       <c r="D165" s="118"/>
       <c r="E165" s="118"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="118"/>
       <c r="B166" s="118"/>
       <c r="C166" s="118"/>
       <c r="D166" s="118"/>
       <c r="E166" s="118"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="118"/>
       <c r="B167" s="118"/>
       <c r="C167" s="118"/>
       <c r="D167" s="118"/>
       <c r="E167" s="118"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="118"/>
       <c r="B168" s="118"/>
       <c r="C168" s="118"/>
       <c r="D168" s="118"/>
       <c r="E168" s="118"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="118"/>
       <c r="B169" s="118"/>
       <c r="C169" s="118"/>
       <c r="D169" s="118"/>
       <c r="E169" s="118"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="118"/>
       <c r="B170" s="118"/>
       <c r="C170" s="118"/>
       <c r="D170" s="118"/>
       <c r="E170" s="118"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="118"/>
       <c r="B171" s="118"/>
       <c r="C171" s="118"/>
       <c r="D171" s="118"/>
       <c r="E171" s="118"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="118"/>
       <c r="B172" s="118"/>
       <c r="C172" s="118"/>
       <c r="D172" s="118"/>
       <c r="E172" s="118"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="118"/>
       <c r="B173" s="118"/>
       <c r="C173" s="118"/>
       <c r="D173" s="118"/>
       <c r="E173" s="118"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="118"/>
       <c r="B174" s="118"/>
       <c r="C174" s="118"/>
       <c r="D174" s="118"/>
       <c r="E174" s="118"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="118"/>
       <c r="B175" s="118"/>
       <c r="C175" s="118"/>
       <c r="D175" s="118"/>
       <c r="E175" s="118"/>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="118"/>
       <c r="B176" s="118"/>
       <c r="C176" s="118"/>
       <c r="D176" s="118"/>
       <c r="E176" s="118"/>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="118"/>
       <c r="B177" s="118"/>
       <c r="C177" s="118"/>
       <c r="D177" s="118"/>
       <c r="E177" s="118"/>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="118"/>
       <c r="B178" s="118"/>
       <c r="C178" s="118"/>
       <c r="D178" s="118"/>
       <c r="E178" s="118"/>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="118"/>
       <c r="B179" s="118"/>
       <c r="C179" s="118"/>
       <c r="D179" s="118"/>
       <c r="E179" s="118"/>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="118"/>
       <c r="B180" s="118"/>
       <c r="C180" s="118"/>
       <c r="D180" s="118"/>
       <c r="E180" s="118"/>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="118"/>
       <c r="B181" s="118"/>
       <c r="C181" s="118"/>
       <c r="D181" s="118"/>
       <c r="E181" s="118"/>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="118"/>
       <c r="B182" s="118"/>
       <c r="C182" s="118"/>
       <c r="D182" s="118"/>
       <c r="E182" s="118"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="118"/>
       <c r="B183" s="118"/>
       <c r="C183" s="118"/>
       <c r="D183" s="118"/>
       <c r="E183" s="118"/>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="118"/>
       <c r="B184" s="118"/>
       <c r="C184" s="118"/>
       <c r="D184" s="118"/>
       <c r="E184" s="118"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="118"/>
       <c r="B185" s="118"/>
       <c r="C185" s="118"/>
       <c r="D185" s="118"/>
       <c r="E185" s="118"/>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="118"/>
       <c r="B186" s="118"/>
       <c r="C186" s="118"/>
       <c r="D186" s="118"/>
       <c r="E186" s="118"/>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="118"/>
       <c r="B187" s="118"/>
       <c r="C187" s="118"/>
       <c r="D187" s="118"/>
       <c r="E187" s="118"/>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="118"/>
       <c r="B188" s="118"/>
       <c r="C188" s="118"/>
       <c r="D188" s="118"/>
       <c r="E188" s="118"/>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="118"/>
       <c r="B189" s="118"/>
       <c r="C189" s="118"/>
       <c r="D189" s="118"/>
       <c r="E189" s="118"/>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="118"/>
       <c r="B190" s="118"/>
       <c r="C190" s="118"/>
       <c r="D190" s="118"/>
       <c r="E190" s="118"/>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="118"/>
       <c r="B191" s="118"/>
       <c r="C191" s="118"/>
       <c r="D191" s="118"/>
       <c r="E191" s="118"/>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="118"/>
       <c r="B192" s="118"/>
       <c r="C192" s="118"/>
       <c r="D192" s="118"/>
       <c r="E192" s="118"/>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="118"/>
       <c r="B193" s="118"/>
       <c r="C193" s="118"/>
       <c r="D193" s="118"/>
       <c r="E193" s="118"/>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="118"/>
       <c r="B194" s="118"/>
       <c r="C194" s="118"/>
       <c r="D194" s="118"/>
       <c r="E194" s="118"/>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="118"/>
       <c r="B195" s="118"/>
       <c r="C195" s="118"/>
       <c r="D195" s="118"/>
       <c r="E195" s="118"/>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="118"/>
       <c r="B196" s="118"/>
       <c r="C196" s="118"/>
       <c r="D196" s="118"/>
       <c r="E196" s="118"/>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="118"/>
       <c r="B197" s="118"/>
       <c r="C197" s="118"/>
       <c r="D197" s="118"/>
       <c r="E197" s="118"/>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="118"/>
       <c r="B198" s="118"/>
       <c r="C198" s="118"/>
       <c r="D198" s="118"/>
       <c r="E198" s="118"/>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="118"/>
       <c r="B199" s="118"/>
       <c r="C199" s="118"/>
       <c r="D199" s="118"/>
       <c r="E199" s="118"/>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="118"/>
       <c r="B200" s="118"/>
       <c r="C200" s="118"/>
       <c r="D200" s="118"/>
       <c r="E200" s="118"/>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="118"/>
       <c r="B201" s="118"/>
       <c r="C201" s="118"/>
       <c r="D201" s="118"/>
       <c r="E201" s="118"/>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="118"/>
       <c r="B202" s="118"/>
       <c r="C202" s="118"/>
       <c r="D202" s="118"/>
       <c r="E202" s="118"/>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="118"/>
       <c r="B203" s="118"/>
       <c r="C203" s="118"/>
       <c r="D203" s="118"/>
       <c r="E203" s="118"/>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="118"/>
       <c r="B204" s="118"/>
       <c r="C204" s="118"/>
       <c r="D204" s="118"/>
       <c r="E204" s="118"/>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="118"/>
       <c r="B205" s="118"/>
       <c r="C205" s="118"/>
       <c r="D205" s="118"/>
       <c r="E205" s="118"/>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="118"/>
       <c r="B206" s="118"/>
       <c r="C206" s="118"/>
       <c r="D206" s="118"/>
       <c r="E206" s="118"/>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="118"/>
       <c r="B207" s="118"/>
       <c r="C207" s="118"/>
       <c r="D207" s="118"/>
       <c r="E207" s="118"/>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="118"/>
       <c r="B208" s="118"/>
       <c r="C208" s="118"/>
       <c r="D208" s="118"/>
       <c r="E208" s="118"/>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="118"/>
       <c r="B209" s="118"/>
       <c r="C209" s="118"/>
       <c r="D209" s="118"/>
       <c r="E209" s="118"/>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="118"/>
       <c r="B210" s="118"/>
       <c r="C210" s="118"/>
       <c r="D210" s="118"/>
       <c r="E210" s="118"/>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="118"/>
       <c r="B211" s="118"/>
       <c r="C211" s="118"/>
       <c r="D211" s="118"/>
       <c r="E211" s="118"/>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="118"/>
       <c r="B212" s="118"/>
       <c r="C212" s="118"/>
       <c r="D212" s="118"/>
       <c r="E212" s="118"/>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="118"/>
       <c r="B213" s="118"/>
       <c r="C213" s="118"/>
       <c r="D213" s="118"/>
       <c r="E213" s="118"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="118"/>
       <c r="B214" s="118"/>
       <c r="C214" s="118"/>
       <c r="D214" s="118"/>
       <c r="E214" s="118"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="118"/>
       <c r="B215" s="118"/>
       <c r="C215" s="118"/>
       <c r="D215" s="118"/>
       <c r="E215" s="118"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="118"/>
       <c r="B216" s="118"/>
       <c r="C216" s="118"/>
       <c r="D216" s="118"/>
       <c r="E216" s="118"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="118"/>
       <c r="B217" s="118"/>
       <c r="C217" s="118"/>
       <c r="D217" s="118"/>
       <c r="E217" s="118"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="118"/>
       <c r="B218" s="118"/>
       <c r="C218" s="118"/>
       <c r="D218" s="118"/>
       <c r="E218" s="118"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="118"/>
       <c r="B219" s="118"/>
       <c r="C219" s="118"/>
       <c r="D219" s="118"/>
       <c r="E219" s="118"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="118"/>
       <c r="B220" s="118"/>
       <c r="C220" s="118"/>
       <c r="D220" s="118"/>
       <c r="E220" s="118"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="118"/>
       <c r="B221" s="118"/>
       <c r="C221" s="118"/>
       <c r="D221" s="118"/>
       <c r="E221" s="118"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="118"/>
       <c r="B222" s="118"/>
       <c r="C222" s="118"/>
       <c r="D222" s="118"/>
       <c r="E222" s="118"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="118"/>
       <c r="B223" s="118"/>
       <c r="C223" s="118"/>
       <c r="D223" s="118"/>
       <c r="E223" s="118"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="118"/>
       <c r="B224" s="118"/>
       <c r="C224" s="118"/>
       <c r="D224" s="118"/>
       <c r="E224" s="118"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="118"/>
       <c r="B225" s="118"/>
       <c r="C225" s="118"/>
       <c r="D225" s="118"/>
       <c r="E225" s="118"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="118"/>
       <c r="B226" s="118"/>
       <c r="C226" s="118"/>
       <c r="D226" s="118"/>
       <c r="E226" s="118"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="118"/>
       <c r="B227" s="118"/>
       <c r="C227" s="118"/>
       <c r="D227" s="118"/>
       <c r="E227" s="118"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="118"/>
       <c r="B228" s="118"/>
       <c r="C228" s="118"/>
       <c r="D228" s="118"/>
       <c r="E228" s="118"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="118"/>
       <c r="B229" s="118"/>
       <c r="C229" s="118"/>
       <c r="D229" s="118"/>
       <c r="E229" s="118"/>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="118"/>
       <c r="B230" s="118"/>
       <c r="C230" s="118"/>
       <c r="D230" s="118"/>
       <c r="E230" s="118"/>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="118"/>
       <c r="B231" s="118"/>
       <c r="C231" s="118"/>
       <c r="D231" s="118"/>
       <c r="E231" s="118"/>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="118"/>
       <c r="B232" s="118"/>
       <c r="C232" s="118"/>
       <c r="D232" s="118"/>
       <c r="E232" s="118"/>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="118"/>
       <c r="B233" s="118"/>
       <c r="C233" s="118"/>
       <c r="D233" s="118"/>
       <c r="E233" s="118"/>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="118"/>
       <c r="B234" s="118"/>
       <c r="C234" s="118"/>
       <c r="D234" s="118"/>
       <c r="E234" s="118"/>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="118"/>
       <c r="B235" s="118"/>
       <c r="C235" s="118"/>
       <c r="D235" s="118"/>
       <c r="E235" s="118"/>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="118"/>
       <c r="B236" s="118"/>
       <c r="C236" s="118"/>
       <c r="D236" s="118"/>
       <c r="E236" s="118"/>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="118"/>
       <c r="B237" s="118"/>
       <c r="C237" s="118"/>
       <c r="D237" s="118"/>
       <c r="E237" s="118"/>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="118"/>
       <c r="B238" s="118"/>
       <c r="C238" s="118"/>
       <c r="D238" s="118"/>
       <c r="E238" s="118"/>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="118"/>
       <c r="B239" s="118"/>
       <c r="C239" s="118"/>
       <c r="D239" s="118"/>
       <c r="E239" s="118"/>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="118"/>
       <c r="B240" s="118"/>
       <c r="C240" s="118"/>
       <c r="D240" s="118"/>
       <c r="E240" s="118"/>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="118"/>
       <c r="B241" s="118"/>
       <c r="C241" s="118"/>
       <c r="D241" s="118"/>
       <c r="E241" s="118"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="118"/>
       <c r="B242" s="118"/>
       <c r="C242" s="118"/>
       <c r="D242" s="118"/>
       <c r="E242" s="118"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="118"/>
       <c r="B243" s="118"/>
       <c r="C243" s="118"/>
       <c r="D243" s="118"/>
       <c r="E243" s="118"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="118"/>
       <c r="B244" s="118"/>
       <c r="C244" s="118"/>
       <c r="D244" s="118"/>
       <c r="E244" s="118"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="118"/>
       <c r="B245" s="118"/>
       <c r="C245" s="118"/>
       <c r="D245" s="118"/>
       <c r="E245" s="118"/>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="118"/>
       <c r="B246" s="118"/>
       <c r="C246" s="118"/>
       <c r="D246" s="118"/>
       <c r="E246" s="118"/>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="118"/>
       <c r="B247" s="118"/>
       <c r="C247" s="118"/>
       <c r="D247" s="118"/>
       <c r="E247" s="118"/>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="118"/>
       <c r="B248" s="118"/>
       <c r="C248" s="118"/>
       <c r="D248" s="118"/>
       <c r="E248" s="118"/>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="118"/>
       <c r="B249" s="118"/>
       <c r="C249" s="118"/>
       <c r="D249" s="118"/>
       <c r="E249" s="118"/>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="118"/>
       <c r="B250" s="118"/>
       <c r="C250" s="118"/>
       <c r="D250" s="118"/>
       <c r="E250" s="118"/>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="118"/>
       <c r="B251" s="118"/>
       <c r="C251" s="118"/>
       <c r="D251" s="118"/>
       <c r="E251" s="118"/>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="118"/>
       <c r="B252" s="118"/>
       <c r="C252" s="118"/>
       <c r="D252" s="118"/>
       <c r="E252" s="118"/>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="118"/>
       <c r="B253" s="118"/>
       <c r="C253" s="118"/>
       <c r="D253" s="118"/>
       <c r="E253" s="118"/>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="118"/>
       <c r="B254" s="118"/>
       <c r="C254" s="118"/>
       <c r="D254" s="118"/>
       <c r="E254" s="118"/>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="118"/>
       <c r="B255" s="118"/>
       <c r="C255" s="118"/>
       <c r="D255" s="118"/>
       <c r="E255" s="118"/>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="118"/>
       <c r="B256" s="118"/>
       <c r="C256" s="118"/>
       <c r="D256" s="118"/>
       <c r="E256" s="118"/>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="118"/>
       <c r="B257" s="118"/>
       <c r="C257" s="118"/>
       <c r="D257" s="118"/>
       <c r="E257" s="118"/>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="118"/>
       <c r="B258" s="118"/>
       <c r="C258" s="118"/>
       <c r="D258" s="118"/>
       <c r="E258" s="118"/>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="118"/>
       <c r="B259" s="118"/>
       <c r="C259" s="118"/>
       <c r="D259" s="118"/>
       <c r="E259" s="118"/>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="118"/>
       <c r="B260" s="118"/>
       <c r="C260" s="118"/>
       <c r="D260" s="118"/>
       <c r="E260" s="118"/>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="118"/>
       <c r="B261" s="118"/>
       <c r="C261" s="118"/>
       <c r="D261" s="118"/>
       <c r="E261" s="118"/>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="118"/>
       <c r="B262" s="118"/>
       <c r="C262" s="118"/>
       <c r="D262" s="118"/>
       <c r="E262" s="118"/>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="118"/>
       <c r="B263" s="118"/>
       <c r="C263" s="118"/>
       <c r="D263" s="118"/>
       <c r="E263" s="118"/>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="118"/>
       <c r="B264" s="118"/>
       <c r="C264" s="118"/>
       <c r="D264" s="118"/>
       <c r="E264" s="118"/>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="118"/>
       <c r="B265" s="118"/>
       <c r="C265" s="118"/>
       <c r="D265" s="118"/>
       <c r="E265" s="118"/>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="118"/>
       <c r="B266" s="118"/>
       <c r="C266" s="118"/>
       <c r="D266" s="118"/>
       <c r="E266" s="118"/>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="118"/>
       <c r="B267" s="118"/>
       <c r="C267" s="118"/>
       <c r="D267" s="118"/>
       <c r="E267" s="118"/>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="118"/>
       <c r="B268" s="118"/>
       <c r="C268" s="118"/>
       <c r="D268" s="118"/>
       <c r="E268" s="118"/>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="118"/>
       <c r="B269" s="118"/>
       <c r="C269" s="118"/>
       <c r="D269" s="118"/>
       <c r="E269" s="118"/>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="118"/>
       <c r="B270" s="118"/>
       <c r="C270" s="118"/>
       <c r="D270" s="118"/>
       <c r="E270" s="118"/>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="118"/>
       <c r="B271" s="118"/>
       <c r="C271" s="118"/>
       <c r="D271" s="118"/>
       <c r="E271" s="118"/>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="118"/>
       <c r="B272" s="118"/>
       <c r="C272" s="118"/>
       <c r="D272" s="118"/>
       <c r="E272" s="118"/>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="118"/>
       <c r="B273" s="118"/>
       <c r="C273" s="118"/>
       <c r="D273" s="118"/>
       <c r="E273" s="118"/>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="118"/>
       <c r="B274" s="118"/>
       <c r="C274" s="118"/>
       <c r="D274" s="118"/>
       <c r="E274" s="118"/>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="118"/>
       <c r="B275" s="118"/>
       <c r="C275" s="118"/>
       <c r="D275" s="118"/>
       <c r="E275" s="118"/>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="118"/>
       <c r="B276" s="118"/>
       <c r="C276" s="118"/>
       <c r="D276" s="118"/>
       <c r="E276" s="118"/>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="118"/>
       <c r="B277" s="118"/>
       <c r="C277" s="118"/>
       <c r="D277" s="118"/>
       <c r="E277" s="118"/>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="118"/>
       <c r="B278" s="118"/>
       <c r="C278" s="118"/>
       <c r="D278" s="118"/>
       <c r="E278" s="118"/>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="118"/>
       <c r="B279" s="118"/>
       <c r="C279" s="118"/>
       <c r="D279" s="118"/>
       <c r="E279" s="118"/>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="118"/>
       <c r="B280" s="118"/>
       <c r="C280" s="118"/>
       <c r="D280" s="118"/>
       <c r="E280" s="118"/>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="118"/>
       <c r="B281" s="118"/>
       <c r="C281" s="118"/>
       <c r="D281" s="118"/>
       <c r="E281" s="118"/>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="118"/>
       <c r="B282" s="118"/>
       <c r="C282" s="118"/>
       <c r="D282" s="118"/>
       <c r="E282" s="118"/>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="118"/>
       <c r="B283" s="118"/>
       <c r="C283" s="118"/>
       <c r="D283" s="118"/>
       <c r="E283" s="118"/>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="118"/>
       <c r="B284" s="118"/>
       <c r="C284" s="118"/>
       <c r="D284" s="118"/>
       <c r="E284" s="118"/>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="118"/>
       <c r="B285" s="118"/>
       <c r="C285" s="118"/>
       <c r="D285" s="118"/>
       <c r="E285" s="118"/>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="118"/>
       <c r="B286" s="118"/>
       <c r="C286" s="118"/>
       <c r="D286" s="118"/>
       <c r="E286" s="118"/>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="118"/>
       <c r="B287" s="118"/>
       <c r="C287" s="118"/>
       <c r="D287" s="118"/>
       <c r="E287" s="118"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="118"/>
       <c r="B288" s="118"/>
       <c r="C288" s="118"/>
       <c r="D288" s="118"/>
       <c r="E288" s="118"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="118"/>
       <c r="B289" s="118"/>
       <c r="C289" s="118"/>
       <c r="D289" s="118"/>
       <c r="E289" s="118"/>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="118"/>
       <c r="B290" s="118"/>
       <c r="C290" s="118"/>
       <c r="D290" s="118"/>
       <c r="E290" s="118"/>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="118"/>
       <c r="B291" s="118"/>
       <c r="C291" s="118"/>
       <c r="D291" s="118"/>
       <c r="E291" s="118"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="118"/>
       <c r="B292" s="118"/>
       <c r="C292" s="118"/>
       <c r="D292" s="118"/>
       <c r="E292" s="118"/>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="118"/>
       <c r="B293" s="118"/>
       <c r="C293" s="118"/>
       <c r="D293" s="118"/>
       <c r="E293" s="118"/>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="118"/>
       <c r="B294" s="118"/>
       <c r="C294" s="118"/>
       <c r="D294" s="118"/>
       <c r="E294" s="118"/>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="118"/>
       <c r="B295" s="118"/>
       <c r="C295" s="118"/>
       <c r="D295" s="118"/>
       <c r="E295" s="118"/>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="118"/>
       <c r="B296" s="118"/>
       <c r="C296" s="118"/>
       <c r="D296" s="118"/>
       <c r="E296" s="118"/>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="118"/>
       <c r="B297" s="118"/>
       <c r="C297" s="118"/>
       <c r="D297" s="118"/>
       <c r="E297" s="118"/>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="118"/>
       <c r="B298" s="118"/>
       <c r="C298" s="118"/>
       <c r="D298" s="118"/>
       <c r="E298" s="118"/>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="118"/>
       <c r="B299" s="118"/>
       <c r="C299" s="118"/>
       <c r="D299" s="118"/>
       <c r="E299" s="118"/>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="118"/>
       <c r="B300" s="118"/>
       <c r="C300" s="118"/>
       <c r="D300" s="118"/>
       <c r="E300" s="118"/>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="118"/>
       <c r="B301" s="118"/>
       <c r="C301" s="118"/>
       <c r="D301" s="118"/>
       <c r="E301" s="118"/>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="118"/>
       <c r="B302" s="118"/>
       <c r="C302" s="118"/>
       <c r="D302" s="118"/>
       <c r="E302" s="118"/>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="118"/>
       <c r="B303" s="118"/>
       <c r="C303" s="118"/>
       <c r="D303" s="118"/>
       <c r="E303" s="118"/>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="118"/>
       <c r="B304" s="118"/>
       <c r="C304" s="118"/>
       <c r="D304" s="118"/>
       <c r="E304" s="118"/>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="118"/>
       <c r="B305" s="118"/>
       <c r="C305" s="118"/>
       <c r="D305" s="118"/>
       <c r="E305" s="118"/>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="118"/>
       <c r="B306" s="118"/>
       <c r="C306" s="118"/>
       <c r="D306" s="118"/>
       <c r="E306" s="118"/>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="118"/>
       <c r="B307" s="118"/>
       <c r="C307" s="118"/>
       <c r="D307" s="118"/>
       <c r="E307" s="118"/>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="118"/>
       <c r="B308" s="118"/>
       <c r="C308" s="118"/>
       <c r="D308" s="118"/>
       <c r="E308" s="118"/>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="118"/>
       <c r="B309" s="118"/>
       <c r="C309" s="118"/>
       <c r="D309" s="118"/>
       <c r="E309" s="118"/>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="118"/>
       <c r="B310" s="118"/>
       <c r="C310" s="118"/>
       <c r="D310" s="118"/>
       <c r="E310" s="118"/>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="118"/>
       <c r="B311" s="118"/>
       <c r="C311" s="118"/>
       <c r="D311" s="118"/>
       <c r="E311" s="118"/>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="118"/>
       <c r="B312" s="118"/>
       <c r="C312" s="118"/>
       <c r="D312" s="118"/>
       <c r="E312" s="118"/>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="118"/>
       <c r="B313" s="118"/>
       <c r="C313" s="118"/>
       <c r="D313" s="118"/>
       <c r="E313" s="118"/>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="118"/>
       <c r="B314" s="118"/>
       <c r="C314" s="118"/>
       <c r="D314" s="118"/>
       <c r="E314" s="118"/>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="118"/>
       <c r="B315" s="118"/>
       <c r="C315" s="118"/>
       <c r="D315" s="118"/>
       <c r="E315" s="118"/>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="118"/>
       <c r="B316" s="118"/>
       <c r="C316" s="118"/>
       <c r="D316" s="118"/>
       <c r="E316" s="118"/>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="118"/>
       <c r="B317" s="118"/>
       <c r="C317" s="118"/>
@@ -6237,6 +6244,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A4:A5"/>
@@ -6253,9 +6263,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6264,14 +6271,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -6282,7 +6289,7 @@
     <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="26.25">
+    <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="272" t="s">
         <v>10</v>
       </c>
@@ -6302,7 +6309,7 @@
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:19" ht="18">
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="275" t="s">
         <v>11</v>
       </c>
@@ -6322,7 +6329,7 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="191" t="s">
         <v>12</v>
       </c>
@@ -6349,7 +6356,7 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>16</v>
       </c>
@@ -6377,7 +6384,7 @@
       <c r="R4" s="40"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -6401,7 +6408,7 @@
       <c r="R5" s="40"/>
       <c r="S5" s="40"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>145</v>
       </c>
@@ -6431,7 +6438,7 @@
       <c r="R6" s="40"/>
       <c r="S6" s="40"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>146</v>
       </c>
@@ -6461,7 +6468,7 @@
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>148</v>
       </c>
@@ -6491,7 +6498,7 @@
       <c r="R8" s="40"/>
       <c r="S8" s="40"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>150</v>
       </c>
@@ -6521,7 +6528,7 @@
       <c r="R9" s="40"/>
       <c r="S9" s="9"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>152</v>
       </c>
@@ -6549,7 +6556,7 @@
       <c r="R10" s="40"/>
       <c r="S10" s="9"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>155</v>
       </c>
@@ -6579,7 +6586,7 @@
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>156</v>
       </c>
@@ -6609,7 +6616,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>158</v>
       </c>
@@ -6639,7 +6646,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>159</v>
       </c>
@@ -6669,7 +6676,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>160</v>
       </c>
@@ -6699,7 +6706,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>161</v>
       </c>
@@ -6729,7 +6736,7 @@
       <c r="R16" s="9"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
         <v>165</v>
       </c>
@@ -6759,7 +6766,7 @@
       <c r="R17" s="56"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>166</v>
       </c>
@@ -6789,7 +6796,7 @@
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
         <v>167</v>
       </c>
@@ -6819,7 +6826,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
         <v>170</v>
       </c>
@@ -6849,7 +6856,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
         <v>171</v>
       </c>
@@ -6879,7 +6886,7 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
         <v>173</v>
       </c>
@@ -6909,7 +6916,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
         <v>174</v>
       </c>
@@ -6939,7 +6946,7 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
         <v>175</v>
       </c>
@@ -6969,7 +6976,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
         <v>175</v>
       </c>
@@ -6999,7 +7006,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
         <v>176</v>
       </c>
@@ -7027,7 +7034,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
         <v>177</v>
       </c>
@@ -7055,7 +7062,7 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
         <v>178</v>
       </c>
@@ -7083,7 +7090,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
         <v>181</v>
       </c>
@@ -7111,7 +7118,7 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
         <v>183</v>
       </c>
@@ -7139,7 +7146,7 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
         <v>183</v>
       </c>
@@ -7167,7 +7174,7 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
       <c r="B32" s="70"/>
       <c r="C32" s="189"/>
@@ -7189,7 +7196,7 @@
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="50"/>
       <c r="B33" s="70"/>
       <c r="C33" s="189"/>
@@ -7211,7 +7218,7 @@
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="50"/>
       <c r="B34" s="70"/>
       <c r="C34" s="71"/>
@@ -7233,7 +7240,7 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
       <c r="B35" s="72"/>
       <c r="C35" s="71"/>
@@ -7255,7 +7262,7 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
       <c r="B36" s="51"/>
       <c r="C36" s="73"/>
@@ -7277,7 +7284,7 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="50"/>
       <c r="B37" s="51"/>
       <c r="C37" s="47"/>
@@ -7299,7 +7306,7 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="50"/>
       <c r="B38" s="51"/>
       <c r="C38" s="47"/>
@@ -7321,7 +7328,7 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="50"/>
       <c r="B39" s="51"/>
       <c r="C39" s="47"/>
@@ -7343,7 +7350,7 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="50"/>
       <c r="B40" s="51"/>
       <c r="C40" s="47"/>
@@ -7365,7 +7372,7 @@
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="50"/>
       <c r="B41" s="51"/>
       <c r="C41" s="47"/>
@@ -7387,7 +7394,7 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="50"/>
       <c r="B42" s="62"/>
       <c r="C42" s="75"/>
@@ -7409,7 +7416,7 @@
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
       <c r="B43" s="51"/>
       <c r="C43" s="47"/>
@@ -7431,7 +7438,7 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
       <c r="B44" s="62"/>
       <c r="C44" s="76"/>
@@ -7453,7 +7460,7 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
       <c r="B45" s="51"/>
       <c r="C45" s="47"/>
@@ -7475,7 +7482,7 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
       <c r="B46" s="70"/>
       <c r="C46" s="47"/>
@@ -7497,7 +7504,7 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="50"/>
       <c r="B47" s="51"/>
       <c r="C47" s="47"/>
@@ -7519,7 +7526,7 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="50"/>
       <c r="B48" s="51"/>
       <c r="C48" s="47"/>
@@ -7541,7 +7548,7 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="50"/>
       <c r="B49" s="51"/>
       <c r="C49" s="47"/>
@@ -7563,7 +7570,7 @@
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="78"/>
       <c r="B50" s="51"/>
       <c r="C50" s="47"/>
@@ -7585,7 +7592,7 @@
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="78"/>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
@@ -7607,7 +7614,7 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="78"/>
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
@@ -7629,7 +7636,7 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="78"/>
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
@@ -7651,7 +7658,7 @@
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="78"/>
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
@@ -7673,7 +7680,7 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="78"/>
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
@@ -7695,7 +7702,7 @@
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="78"/>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -7717,7 +7724,7 @@
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="78"/>
       <c r="B57" s="51"/>
       <c r="C57" s="47"/>
@@ -7739,7 +7746,7 @@
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="78"/>
       <c r="B58" s="51"/>
       <c r="C58" s="47"/>
@@ -7761,7 +7768,7 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="78"/>
       <c r="B59" s="51"/>
       <c r="C59" s="47"/>
@@ -7783,7 +7790,7 @@
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="78"/>
       <c r="B60" s="62"/>
       <c r="C60" s="47"/>
@@ -7805,7 +7812,7 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="78"/>
       <c r="B61" s="62"/>
       <c r="C61" s="47"/>
@@ -7827,7 +7834,7 @@
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="78"/>
       <c r="B62" s="51"/>
       <c r="C62" s="47"/>
@@ -7849,7 +7856,7 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="78"/>
       <c r="B63" s="51"/>
       <c r="C63" s="47"/>
@@ -7871,7 +7878,7 @@
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="78"/>
       <c r="B64" s="51"/>
       <c r="C64" s="47"/>
@@ -7893,7 +7900,7 @@
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="78"/>
       <c r="B65" s="51"/>
       <c r="C65" s="47"/>
@@ -7915,7 +7922,7 @@
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="78"/>
       <c r="B66" s="51"/>
       <c r="C66" s="47"/>
@@ -7937,7 +7944,7 @@
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="78"/>
       <c r="B67" s="51"/>
       <c r="C67" s="47"/>
@@ -7959,7 +7966,7 @@
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="78"/>
       <c r="B68" s="51"/>
       <c r="C68" s="47"/>
@@ -7981,7 +7988,7 @@
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="78"/>
       <c r="B69" s="51"/>
       <c r="C69" s="47"/>
@@ -8003,7 +8010,7 @@
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="78"/>
       <c r="B70" s="47"/>
       <c r="C70" s="47"/>
@@ -8025,7 +8032,7 @@
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="78"/>
       <c r="B71" s="51"/>
       <c r="C71" s="47"/>
@@ -8047,7 +8054,7 @@
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="78"/>
       <c r="B72" s="51"/>
       <c r="C72" s="47"/>
@@ -8069,7 +8076,7 @@
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="78"/>
       <c r="B73" s="51"/>
       <c r="C73" s="47"/>
@@ -8091,7 +8098,7 @@
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="78"/>
       <c r="B74" s="51"/>
       <c r="C74" s="47"/>
@@ -8113,7 +8120,7 @@
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="78"/>
       <c r="B75" s="51"/>
       <c r="C75" s="47"/>
@@ -8135,7 +8142,7 @@
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="78"/>
       <c r="B76" s="51"/>
       <c r="C76" s="47"/>
@@ -8157,7 +8164,7 @@
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="78"/>
       <c r="B77" s="51"/>
       <c r="C77" s="47"/>
@@ -8179,7 +8186,7 @@
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="78"/>
       <c r="B78" s="51"/>
       <c r="C78" s="47"/>
@@ -8201,7 +8208,7 @@
       <c r="R78" s="9"/>
       <c r="S78" s="9"/>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="78"/>
       <c r="B79" s="51"/>
       <c r="C79" s="47"/>
@@ -8223,7 +8230,7 @@
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="78"/>
       <c r="B80" s="51"/>
       <c r="C80" s="47"/>
@@ -8245,7 +8252,7 @@
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="78"/>
       <c r="B81" s="51"/>
       <c r="C81" s="47"/>
@@ -8267,7 +8274,7 @@
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="78"/>
       <c r="B82" s="51"/>
       <c r="C82" s="47"/>
@@ -8289,7 +8296,7 @@
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="79"/>
       <c r="B83" s="51">
         <f>SUM(B4:B72)</f>
@@ -8315,7 +8322,7 @@
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D84" s="81"/>
       <c r="I84" s="8"/>
       <c r="J84" s="9"/>
@@ -8327,11 +8334,11 @@
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I85" s="8"/>
       <c r="J85" s="9"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S89">
         <v>3381</v>
       </c>
@@ -8346,45 +8353,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="276" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="277"/>
       <c r="C1" s="278"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="279"/>
       <c r="B2" s="280"/>
       <c r="C2" s="281"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="282" t="s">
         <v>136</v>
       </c>
       <c r="B3" s="283"/>
       <c r="C3" s="284"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="285"/>
       <c r="B4" s="286"/>
       <c r="C4" s="287"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="227" t="s">
         <v>137</v>
       </c>
@@ -8395,7 +8402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75">
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="229" t="s">
         <v>64</v>
       </c>
@@ -8406,7 +8413,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75">
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="229" t="s">
         <v>62</v>
       </c>
@@ -8417,7 +8424,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75">
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="229" t="s">
         <v>149</v>
       </c>
@@ -8428,7 +8435,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75">
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="229" t="s">
         <v>110</v>
       </c>
@@ -8439,7 +8446,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75">
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="229" t="s">
         <v>60</v>
       </c>
@@ -8450,12 +8457,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75">
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="229"/>
       <c r="B11" s="187"/>
       <c r="C11" s="230"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75">
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="229" t="s">
         <v>65</v>
       </c>
@@ -8466,7 +8473,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75">
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="229" t="s">
         <v>56</v>
       </c>
@@ -8477,7 +8484,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75">
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="229" t="s">
         <v>63</v>
       </c>
@@ -8498,7 +8505,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75">
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="229" t="s">
         <v>55</v>
       </c>
@@ -8520,7 +8527,7 @@
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75">
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="229" t="s">
         <v>49</v>
       </c>
@@ -8542,7 +8549,7 @@
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:15" ht="17.25" customHeight="1">
+    <row r="17" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="243" t="s">
         <v>57</v>
       </c>
@@ -8564,7 +8571,7 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="229" t="s">
         <v>61</v>
       </c>
@@ -8586,7 +8593,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75">
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="229" t="s">
         <v>142</v>
       </c>
@@ -8608,7 +8615,7 @@
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:15" ht="15.75">
+    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="229" t="s">
         <v>66</v>
       </c>
@@ -8630,7 +8637,7 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="1:15" ht="15.75">
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="229" t="s">
         <v>138</v>
       </c>
@@ -8652,7 +8659,7 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1">
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="229" t="s">
         <v>153</v>
       </c>
@@ -8674,7 +8681,7 @@
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75">
+    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="229" t="s">
         <v>139</v>
       </c>
@@ -8685,7 +8692,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75">
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="229" t="s">
         <v>169</v>
       </c>
@@ -8696,7 +8703,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75">
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="229" t="s">
         <v>52</v>
       </c>
@@ -8707,7 +8714,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75">
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="229" t="s">
         <v>50</v>
       </c>
@@ -8718,7 +8725,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75">
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="229" t="s">
         <v>151</v>
       </c>
@@ -8729,7 +8736,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16.5" thickBot="1">
+    <row r="28" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="231" t="s">
         <v>164</v>
       </c>
@@ -8740,7 +8747,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="23.25">
+    <row r="29" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="226" t="s">
         <v>35</v>
       </c>
@@ -8763,14 +8770,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
@@ -8787,7 +8794,7 @@
     <col min="13" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="294" t="s">
         <v>6</v>
       </c>
@@ -8799,7 +8806,7 @@
       <c r="H1" s="137"/>
       <c r="I1" s="137"/>
     </row>
-    <row r="2" spans="1:12" ht="21.75">
+    <row r="2" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A2" s="297" t="s">
         <v>186</v>
       </c>
@@ -8808,7 +8815,7 @@
       <c r="D2" s="298"/>
       <c r="E2" s="299"/>
     </row>
-    <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
@@ -8824,7 +8831,7 @@
       </c>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:12" ht="22.5">
+    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="82"/>
       <c r="B4" s="20"/>
       <c r="C4" s="38"/>
@@ -8837,7 +8844,7 @@
       <c r="K4" s="301"/>
       <c r="L4" s="302"/>
     </row>
-    <row r="5" spans="1:12" ht="22.5">
+    <row r="5" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>8</v>
       </c>
@@ -8862,7 +8869,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="21.75">
+    <row r="6" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
         <v>115</v>
       </c>
@@ -8887,7 +8894,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="21.75">
+    <row r="7" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="31"/>
       <c r="C7" s="38"/>
@@ -8906,7 +8913,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="21.75">
+    <row r="8" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
         <v>116</v>
       </c>
@@ -8931,7 +8938,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="23.25">
+    <row r="9" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="84" t="s">
         <v>9</v>
       </c>
@@ -8956,7 +8963,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="21.75">
+    <row r="10" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="32"/>
       <c r="C10" s="38"/>
@@ -8973,7 +8980,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="21.75">
+    <row r="11" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A11" s="84" t="s">
         <v>147</v>
       </c>
@@ -9002,7 +9009,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="21.75">
+    <row r="12" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A12" s="88" t="s">
         <v>47</v>
       </c>
@@ -9020,7 +9027,7 @@
       <c r="K12" s="134"/>
       <c r="L12" s="134"/>
     </row>
-    <row r="13" spans="1:12" ht="21.75">
+    <row r="13" spans="1:12" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A13" s="88"/>
       <c r="B13" s="39"/>
       <c r="C13" s="38"/>
@@ -9031,7 +9038,7 @@
       <c r="K13" s="134"/>
       <c r="L13" s="134"/>
     </row>
-    <row r="14" spans="1:12" s="26" customFormat="1" ht="21.75">
+    <row r="14" spans="1:12" s="26" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A14" s="84"/>
       <c r="B14" s="31"/>
       <c r="C14" s="38"/>
@@ -9048,7 +9055,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="21.75">
+    <row r="15" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A15" s="84" t="s">
         <v>117</v>
       </c>
@@ -9075,7 +9082,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
       <c r="B16" s="91"/>
       <c r="C16" s="92"/>
@@ -9092,7 +9099,7 @@
         <v>7989</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="291"/>
       <c r="B17" s="292"/>
       <c r="C17" s="292"/>
@@ -9103,7 +9110,7 @@
       <c r="K17" s="246"/>
       <c r="L17" s="246"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="28"/>
       <c r="D18" s="13"/>
@@ -9118,7 +9125,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="28"/>
       <c r="F19" s="27"/>
@@ -9132,7 +9139,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="21">
+    <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="28"/>
       <c r="D20" s="5"/>
@@ -9147,29 +9154,29 @@
         <v>26789</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C21" s="28"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
       <c r="F21" s="27"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C24" s="15"/>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="8"/>
       <c r="C25" s="28"/>
@@ -9179,50 +9186,50 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="8"/>
       <c r="C26" s="28"/>
       <c r="D26" s="7"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="28"/>
       <c r="D27" s="12"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="28"/>
       <c r="D28" s="7"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="28"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="8"/>
       <c r="C30" s="28"/>
       <c r="D30" s="7"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="34" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" ht="20.100000000000001" customHeight="1"/>
-    <row r="37" ht="20.100000000000001" customHeight="1"/>
-    <row r="38" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" ht="20.100000000000001" customHeight="1"/>
-    <row r="40" ht="20.100000000000001" customHeight="1"/>
-    <row r="41" ht="20.100000000000001" customHeight="1"/>
-    <row r="43" ht="21" customHeight="1"/>
-    <row r="44" ht="21" customHeight="1"/>
-    <row r="45" ht="20.100000000000001" customHeight="1"/>
-    <row r="46" ht="20.100000000000001" customHeight="1"/>
-    <row r="47" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="J20:K20"/>
@@ -9238,7 +9245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9246,7 +9253,7 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="119" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="119" customWidth="1"/>
@@ -9266,7 +9273,7 @@
     <col min="18" max="16384" width="9.140625" style="119"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" customHeight="1">
+    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="306" t="s">
         <v>10</v>
       </c>
@@ -9287,7 +9294,7 @@
       <c r="P1" s="306"/>
       <c r="Q1" s="306"/>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="306"/>
       <c r="B2" s="306"/>
       <c r="C2" s="306"/>
@@ -9306,7 +9313,7 @@
       <c r="P2" s="306"/>
       <c r="Q2" s="306"/>
     </row>
-    <row r="3" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="307" t="s">
         <v>76</v>
       </c>
@@ -9327,7 +9334,7 @@
       <c r="P3" s="307"/>
       <c r="Q3" s="307"/>
     </row>
-    <row r="4" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="308" t="s">
         <v>19</v>
       </c>
@@ -9348,7 +9355,7 @@
       <c r="P4" s="308"/>
       <c r="Q4" s="308"/>
     </row>
-    <row r="5" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="309" t="s">
         <v>184</v>
       </c>
@@ -9371,7 +9378,7 @@
       <c r="P5" s="310"/>
       <c r="Q5" s="140"/>
     </row>
-    <row r="6" spans="1:20" s="120" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:20" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="141" t="s">
         <v>78</v>
       </c>
@@ -9424,7 +9431,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" customHeight="1">
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="121">
         <v>1</v>
       </c>
@@ -9449,7 +9456,7 @@
       <c r="P7" s="161"/>
       <c r="Q7" s="171"/>
     </row>
-    <row r="8" spans="1:20" ht="18" customHeight="1">
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="121">
         <v>2</v>
       </c>
@@ -9474,7 +9481,7 @@
       <c r="P8" s="161"/>
       <c r="Q8" s="171"/>
     </row>
-    <row r="9" spans="1:20" ht="18" customHeight="1">
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="144">
         <v>3</v>
       </c>
@@ -9499,7 +9506,7 @@
       <c r="P9" s="161"/>
       <c r="Q9" s="171"/>
     </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1">
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="121">
         <v>4</v>
       </c>
@@ -9525,7 +9532,7 @@
       <c r="Q10" s="172"/>
       <c r="T10" s="220"/>
     </row>
-    <row r="11" spans="1:20" ht="18" customHeight="1">
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="121">
         <v>5</v>
       </c>
@@ -9550,7 +9557,7 @@
       <c r="P11" s="161"/>
       <c r="Q11" s="172"/>
     </row>
-    <row r="12" spans="1:20" ht="18" customHeight="1">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="144">
         <v>6</v>
       </c>
@@ -9575,7 +9582,7 @@
       <c r="P12" s="161"/>
       <c r="Q12" s="172"/>
     </row>
-    <row r="13" spans="1:20" ht="18" customHeight="1">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="121">
         <v>7</v>
       </c>
@@ -9600,7 +9607,7 @@
       <c r="P13" s="161"/>
       <c r="Q13" s="172"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1">
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="121">
         <v>8</v>
       </c>
@@ -9625,7 +9632,7 @@
       <c r="P14" s="161"/>
       <c r="Q14" s="172"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="144">
         <v>9</v>
       </c>
@@ -9650,7 +9657,7 @@
       <c r="P15" s="161"/>
       <c r="Q15" s="172"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1">
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="121">
         <v>10</v>
       </c>
@@ -9675,7 +9682,7 @@
       <c r="P16" s="161"/>
       <c r="Q16" s="172"/>
     </row>
-    <row r="17" spans="1:17" ht="18" customHeight="1">
+    <row r="17" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="121">
         <v>11</v>
       </c>
@@ -9700,7 +9707,7 @@
       <c r="P17" s="161"/>
       <c r="Q17" s="172"/>
     </row>
-    <row r="18" spans="1:17" ht="18" customHeight="1">
+    <row r="18" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="144">
         <v>12</v>
       </c>
@@ -9725,7 +9732,7 @@
       <c r="P18" s="161"/>
       <c r="Q18" s="172"/>
     </row>
-    <row r="19" spans="1:17" ht="18" customHeight="1">
+    <row r="19" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="121">
         <v>13</v>
       </c>
@@ -9750,7 +9757,7 @@
       <c r="P19" s="161"/>
       <c r="Q19" s="172"/>
     </row>
-    <row r="20" spans="1:17" ht="18" customHeight="1">
+    <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="121">
         <v>14</v>
       </c>
@@ -9775,7 +9782,7 @@
       <c r="P20" s="161"/>
       <c r="Q20" s="172"/>
     </row>
-    <row r="21" spans="1:17" ht="18" customHeight="1">
+    <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="144">
         <v>15</v>
       </c>
@@ -9800,7 +9807,7 @@
       <c r="P21" s="161"/>
       <c r="Q21" s="172"/>
     </row>
-    <row r="22" spans="1:17" ht="18" customHeight="1">
+    <row r="22" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="121">
         <v>16</v>
       </c>
@@ -9825,7 +9832,7 @@
       <c r="P22" s="161"/>
       <c r="Q22" s="172"/>
     </row>
-    <row r="23" spans="1:17" ht="18" customHeight="1">
+    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="121">
         <v>17</v>
       </c>
@@ -9850,7 +9857,7 @@
       <c r="P23" s="161"/>
       <c r="Q23" s="172"/>
     </row>
-    <row r="24" spans="1:17" ht="18" customHeight="1">
+    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="144">
         <v>18</v>
       </c>
@@ -9875,7 +9882,7 @@
       <c r="P24" s="161"/>
       <c r="Q24" s="172"/>
     </row>
-    <row r="25" spans="1:17" ht="18" customHeight="1">
+    <row r="25" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="121">
         <v>19</v>
       </c>
@@ -9900,7 +9907,7 @@
       <c r="P25" s="161"/>
       <c r="Q25" s="172"/>
     </row>
-    <row r="26" spans="1:17" ht="18" customHeight="1">
+    <row r="26" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="121">
         <v>20</v>
       </c>
@@ -9925,7 +9932,7 @@
       <c r="P26" s="161"/>
       <c r="Q26" s="172"/>
     </row>
-    <row r="27" spans="1:17" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="144">
         <v>21</v>
       </c>
@@ -9950,7 +9957,7 @@
       <c r="P27" s="161"/>
       <c r="Q27" s="172"/>
     </row>
-    <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="303" t="s">
         <v>38</v>
       </c>
@@ -10010,7 +10017,7 @@
       </c>
       <c r="Q28" s="149"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75">
+    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
       <c r="B29" s="63"/>
       <c r="C29" s="63"/>
@@ -10020,7 +10027,7 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75">
+    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
       <c r="B30" s="63"/>
       <c r="C30" s="54"/>
@@ -10035,7 +10042,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
       <c r="B31" s="63"/>
       <c r="C31" s="54"/>
@@ -10044,7 +10051,7 @@
       <c r="G31" s="63"/>
       <c r="I31" s="63"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
       <c r="C32" s="54"/>
@@ -10053,7 +10060,7 @@
       <c r="G32" s="63"/>
       <c r="I32" s="63"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
       <c r="C33" s="54"/>
@@ -10062,7 +10069,7 @@
       <c r="G33" s="63"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
       <c r="C34" s="54"/>
@@ -10071,589 +10078,589 @@
       <c r="G34" s="63"/>
       <c r="I34" s="63"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
       <c r="C35" s="54"/>
       <c r="D35" s="54"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="131"/>
       <c r="B36" s="131"/>
       <c r="C36" s="54"/>
       <c r="D36" s="54"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
       <c r="C40" s="54"/>
       <c r="D40" s="54"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
       <c r="C42" s="63"/>
       <c r="D42" s="63"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
       <c r="C43" s="63"/>
       <c r="D43" s="63"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
       <c r="C44" s="63"/>
       <c r="D44" s="63"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
       <c r="B45" s="63"/>
       <c r="C45" s="63"/>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
       <c r="B46" s="63"/>
       <c r="C46" s="63"/>
       <c r="D46" s="63"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
       <c r="B47" s="63"/>
       <c r="C47" s="63"/>
       <c r="D47" s="63"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
       <c r="B48" s="63"/>
       <c r="C48" s="63"/>
       <c r="D48" s="63"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
       <c r="B49" s="63"/>
       <c r="C49" s="63"/>
       <c r="D49" s="63"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
       <c r="B50" s="63"/>
       <c r="C50" s="63"/>
       <c r="D50" s="63"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
       <c r="B51" s="63"/>
       <c r="C51" s="63"/>
       <c r="D51" s="63"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
       <c r="B52" s="63"/>
       <c r="C52" s="63"/>
       <c r="D52" s="63"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="63"/>
       <c r="B53" s="63"/>
       <c r="C53" s="63"/>
       <c r="D53" s="63"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="63"/>
       <c r="B54" s="63"/>
       <c r="C54" s="63"/>
       <c r="D54" s="63"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="63"/>
       <c r="B55" s="63"/>
       <c r="C55" s="63"/>
       <c r="D55" s="63"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="63"/>
       <c r="B56" s="63"/>
       <c r="C56" s="63"/>
       <c r="D56" s="63"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="63"/>
       <c r="B57" s="63"/>
       <c r="C57" s="63"/>
       <c r="D57" s="63"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="63"/>
       <c r="B58" s="63"/>
       <c r="C58" s="63"/>
       <c r="D58" s="63"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="63"/>
       <c r="B59" s="63"/>
       <c r="C59" s="63"/>
       <c r="D59" s="63"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="63"/>
       <c r="B60" s="63"/>
       <c r="C60" s="63"/>
       <c r="D60" s="63"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="63"/>
       <c r="B61" s="63"/>
       <c r="C61" s="63"/>
       <c r="D61" s="63"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" s="63"/>
       <c r="D62" s="63"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="63"/>
       <c r="D63" s="63"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" s="63"/>
       <c r="D64" s="63"/>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="63"/>
       <c r="D65" s="63"/>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="63"/>
       <c r="D66" s="63"/>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="63"/>
       <c r="D67" s="63"/>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="63"/>
       <c r="D68" s="63"/>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="63"/>
       <c r="D69" s="63"/>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
     </row>
-    <row r="71" spans="3:4">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="63"/>
       <c r="D71" s="63"/>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="63"/>
       <c r="D72" s="63"/>
     </row>
-    <row r="73" spans="3:4">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="63"/>
       <c r="D73" s="63"/>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="63"/>
       <c r="D74" s="63"/>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="63"/>
       <c r="D75" s="63"/>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="63"/>
       <c r="D76" s="63"/>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="63"/>
       <c r="D77" s="63"/>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="63"/>
       <c r="D78" s="63"/>
     </row>
-    <row r="79" spans="3:4">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="63"/>
       <c r="D79" s="63"/>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="63"/>
       <c r="D80" s="63"/>
     </row>
-    <row r="81" spans="3:4">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="63"/>
       <c r="D81" s="63"/>
     </row>
-    <row r="82" spans="3:4">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="63"/>
       <c r="D82" s="63"/>
     </row>
-    <row r="83" spans="3:4">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="63"/>
       <c r="D83" s="63"/>
     </row>
-    <row r="84" spans="3:4">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="63"/>
       <c r="D84" s="63"/>
     </row>
-    <row r="85" spans="3:4">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="63"/>
       <c r="D85" s="63"/>
     </row>
-    <row r="86" spans="3:4">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="63"/>
       <c r="D86" s="63"/>
     </row>
-    <row r="87" spans="3:4">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="63"/>
       <c r="D87" s="63"/>
     </row>
-    <row r="88" spans="3:4">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="63"/>
       <c r="D88" s="63"/>
     </row>
-    <row r="89" spans="3:4">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="63"/>
       <c r="D89" s="63"/>
     </row>
-    <row r="90" spans="3:4">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="63"/>
       <c r="D90" s="63"/>
     </row>
-    <row r="91" spans="3:4">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="63"/>
       <c r="D91" s="63"/>
     </row>
-    <row r="92" spans="3:4">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="63"/>
       <c r="D92" s="63"/>
     </row>
-    <row r="93" spans="3:4">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="63"/>
       <c r="D93" s="63"/>
     </row>
-    <row r="94" spans="3:4">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="63"/>
       <c r="D94" s="63"/>
     </row>
-    <row r="95" spans="3:4">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="63"/>
       <c r="D95" s="63"/>
     </row>
-    <row r="96" spans="3:4">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="63"/>
       <c r="D96" s="63"/>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="63"/>
       <c r="D97" s="63"/>
     </row>
-    <row r="98" spans="3:4">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="63"/>
       <c r="D98" s="63"/>
     </row>
-    <row r="99" spans="3:4">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="63"/>
       <c r="D99" s="63"/>
     </row>
-    <row r="100" spans="3:4">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="63"/>
       <c r="D100" s="63"/>
     </row>
-    <row r="101" spans="3:4">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="63"/>
       <c r="D101" s="63"/>
     </row>
-    <row r="102" spans="3:4">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="63"/>
       <c r="D102" s="63"/>
     </row>
-    <row r="103" spans="3:4">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="63"/>
       <c r="D103" s="63"/>
     </row>
-    <row r="104" spans="3:4">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="63"/>
       <c r="D104" s="63"/>
     </row>
-    <row r="105" spans="3:4">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="63"/>
       <c r="D105" s="63"/>
     </row>
-    <row r="106" spans="3:4">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="63"/>
       <c r="D106" s="63"/>
     </row>
-    <row r="107" spans="3:4">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="63"/>
       <c r="D107" s="63"/>
     </row>
-    <row r="108" spans="3:4">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="63"/>
       <c r="D108" s="63"/>
     </row>
-    <row r="109" spans="3:4">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="63"/>
       <c r="D109" s="63"/>
     </row>
-    <row r="110" spans="3:4">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="63"/>
       <c r="D110" s="63"/>
     </row>
-    <row r="111" spans="3:4">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="63"/>
       <c r="D111" s="63"/>
     </row>
-    <row r="112" spans="3:4">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="63"/>
       <c r="D112" s="63"/>
     </row>
-    <row r="113" spans="3:4">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="63"/>
       <c r="D113" s="63"/>
     </row>
-    <row r="114" spans="3:4">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="63"/>
       <c r="D114" s="63"/>
     </row>
-    <row r="115" spans="3:4">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="63"/>
       <c r="D115" s="63"/>
     </row>
-    <row r="116" spans="3:4">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="63"/>
       <c r="D116" s="63"/>
     </row>
-    <row r="117" spans="3:4">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="63"/>
       <c r="D117" s="63"/>
     </row>
-    <row r="118" spans="3:4">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="63"/>
       <c r="D118" s="63"/>
     </row>
-    <row r="119" spans="3:4">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" s="63"/>
       <c r="D119" s="63"/>
     </row>
-    <row r="120" spans="3:4">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" s="63"/>
       <c r="D120" s="63"/>
     </row>
-    <row r="121" spans="3:4">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="63"/>
       <c r="D121" s="63"/>
     </row>
-    <row r="122" spans="3:4">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" s="63"/>
       <c r="D122" s="63"/>
     </row>
-    <row r="123" spans="3:4">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="63"/>
       <c r="D123" s="63"/>
     </row>
-    <row r="124" spans="3:4">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="63"/>
       <c r="D124" s="63"/>
     </row>
-    <row r="125" spans="3:4">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="63"/>
       <c r="D125" s="63"/>
     </row>
-    <row r="126" spans="3:4">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="63"/>
       <c r="D126" s="63"/>
     </row>
-    <row r="127" spans="3:4">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="63"/>
       <c r="D127" s="63"/>
     </row>
-    <row r="128" spans="3:4">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="63"/>
       <c r="D128" s="63"/>
     </row>
-    <row r="129" spans="3:4">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="63"/>
       <c r="D129" s="63"/>
     </row>
-    <row r="130" spans="3:4">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="63"/>
       <c r="D130" s="63"/>
     </row>
-    <row r="131" spans="3:4">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="63"/>
       <c r="D131" s="63"/>
     </row>
-    <row r="132" spans="3:4">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="63"/>
       <c r="D132" s="63"/>
     </row>
-    <row r="133" spans="3:4">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" s="63"/>
       <c r="D133" s="63"/>
     </row>
-    <row r="134" spans="3:4">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="63"/>
       <c r="D134" s="63"/>
     </row>
-    <row r="135" spans="3:4">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" s="63"/>
       <c r="D135" s="63"/>
     </row>
-    <row r="136" spans="3:4">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" s="63"/>
       <c r="D136" s="63"/>
     </row>
-    <row r="137" spans="3:4">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" s="63"/>
       <c r="D137" s="63"/>
     </row>
-    <row r="138" spans="3:4">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" s="63"/>
       <c r="D138" s="63"/>
     </row>
-    <row r="139" spans="3:4">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" s="63"/>
       <c r="D139" s="63"/>
     </row>
-    <row r="140" spans="3:4">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" s="63"/>
       <c r="D140" s="63"/>
     </row>
-    <row r="141" spans="3:4">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="63"/>
       <c r="D141" s="63"/>
     </row>
-    <row r="142" spans="3:4">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" s="63"/>
       <c r="D142" s="63"/>
     </row>
-    <row r="143" spans="3:4">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" s="63"/>
       <c r="D143" s="63"/>
     </row>
-    <row r="144" spans="3:4">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" s="63"/>
       <c r="D144" s="63"/>
     </row>
-    <row r="145" spans="3:4">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="63"/>
       <c r="D145" s="63"/>
     </row>
-    <row r="146" spans="3:4">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="63"/>
       <c r="D146" s="63"/>
     </row>
-    <row r="147" spans="3:4">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="63"/>
       <c r="D147" s="63"/>
     </row>
-    <row r="148" spans="3:4">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="63"/>
       <c r="D148" s="63"/>
     </row>
-    <row r="149" spans="3:4">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="63"/>
       <c r="D149" s="63"/>
     </row>
-    <row r="150" spans="3:4">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="63"/>
       <c r="D150" s="63"/>
     </row>
-    <row r="151" spans="3:4">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="63"/>
       <c r="D151" s="63"/>
     </row>
-    <row r="152" spans="3:4">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="63"/>
       <c r="D152" s="63"/>
     </row>
-    <row r="153" spans="3:4">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="63"/>
       <c r="D153" s="63"/>
     </row>
-    <row r="154" spans="3:4">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="63"/>
       <c r="D154" s="63"/>
     </row>
-    <row r="155" spans="3:4">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="63"/>
       <c r="D155" s="63"/>
     </row>
-    <row r="156" spans="3:4">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="63"/>
       <c r="D156" s="63"/>
     </row>
-    <row r="157" spans="3:4">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="63"/>
       <c r="D157" s="63"/>
     </row>
-    <row r="158" spans="3:4">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="63"/>
       <c r="D158" s="63"/>
     </row>
-    <row r="159" spans="3:4">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="63"/>
       <c r="D159" s="63"/>
     </row>
-    <row r="160" spans="3:4">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" s="63"/>
       <c r="D160" s="63"/>
     </row>
-    <row r="161" spans="3:4">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" s="63"/>
       <c r="D161" s="63"/>
     </row>
-    <row r="162" spans="3:4">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="63"/>
       <c r="D162" s="63"/>
     </row>
-    <row r="163" spans="3:4">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="63"/>
       <c r="D163" s="63"/>
     </row>
-    <row r="164" spans="3:4">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="63"/>
       <c r="D164" s="63"/>
     </row>
-    <row r="165" spans="3:4">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" s="63"/>
       <c r="D165" s="63"/>
     </row>
-    <row r="166" spans="3:4">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" s="63"/>
       <c r="D166" s="63"/>
     </row>
-    <row r="167" spans="3:4">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" s="63"/>
       <c r="D167" s="63"/>
     </row>
@@ -10680,14 +10687,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -10695,7 +10702,7 @@
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" customHeight="1">
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="312" t="s">
         <v>118</v>
       </c>
@@ -10703,7 +10710,7 @@
       <c r="D1" s="313"/>
       <c r="E1" s="314"/>
     </row>
-    <row r="2" spans="2:8" ht="15" customHeight="1">
+    <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="150" t="s">
         <v>87</v>
       </c>
@@ -10717,7 +10724,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" customHeight="1">
+    <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="151" t="s">
         <v>88</v>
       </c>
@@ -10732,7 +10739,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" customHeight="1">
+    <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="151" t="s">
         <v>89</v>
       </c>
@@ -10747,7 +10754,7 @@
         <v>-2029</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1">
+    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="151" t="s">
         <v>90</v>
       </c>
@@ -10762,7 +10769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1">
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="151" t="s">
         <v>91</v>
       </c>
@@ -10777,7 +10784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1">
+    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="151" t="s">
         <v>92</v>
       </c>
@@ -10792,7 +10799,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1">
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="151" t="s">
         <v>93</v>
       </c>
@@ -10807,7 +10814,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1">
+    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="151" t="s">
         <v>94</v>
       </c>
@@ -10823,7 +10830,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1">
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="151" t="s">
         <v>95</v>
       </c>
@@ -10838,7 +10845,7 @@
         <v>4671</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" customHeight="1">
+    <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="151" t="s">
         <v>96</v>
       </c>
@@ -10853,7 +10860,7 @@
         <v>-7690</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1">
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="151" t="s">
         <v>97</v>
       </c>
@@ -10868,7 +10875,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1">
+    <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="151" t="s">
         <v>98</v>
       </c>
@@ -10883,7 +10890,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1">
+    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="151" t="s">
         <v>99</v>
       </c>
@@ -10898,7 +10905,7 @@
         <v>-5027</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15" customHeight="1">
+    <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="151" t="s">
         <v>100</v>
       </c>
@@ -10913,7 +10920,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1">
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="151" t="s">
         <v>101</v>
       </c>
@@ -10928,7 +10935,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1">
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="151" t="s">
         <v>102</v>
       </c>
@@ -10943,7 +10950,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1">
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="151" t="s">
         <v>103</v>
       </c>
@@ -10958,7 +10965,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15" customHeight="1">
+    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="151" t="s">
         <v>104</v>
       </c>
@@ -10973,7 +10980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15" customHeight="1">
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="151" t="s">
         <v>105</v>
       </c>
@@ -10988,7 +10995,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15" customHeight="1">
+    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="151" t="s">
         <v>106</v>
       </c>
@@ -11003,7 +11010,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15" customHeight="1">
+    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="151" t="s">
         <v>107</v>
       </c>
@@ -11018,7 +11025,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="15" customHeight="1">
+    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="151" t="s">
         <v>108</v>
       </c>
@@ -11033,7 +11040,7 @@
         <v>-3262</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1">
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="155" t="s">
         <v>35</v>
       </c>
@@ -11067,7 +11074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11075,7 +11082,7 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="119" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="119" customWidth="1"/>
@@ -11095,7 +11102,7 @@
     <col min="18" max="16384" width="9.140625" style="119"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1">
+    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="306" t="s">
         <v>10</v>
       </c>
@@ -11116,7 +11123,7 @@
       <c r="P1" s="306"/>
       <c r="Q1" s="306"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="306"/>
       <c r="B2" s="306"/>
       <c r="C2" s="306"/>
@@ -11135,7 +11142,7 @@
       <c r="P2" s="306"/>
       <c r="Q2" s="306"/>
     </row>
-    <row r="3" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="307" t="s">
         <v>76</v>
       </c>
@@ -11156,7 +11163,7 @@
       <c r="P3" s="307"/>
       <c r="Q3" s="307"/>
     </row>
-    <row r="4" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="308" t="s">
         <v>19</v>
       </c>
@@ -11177,7 +11184,7 @@
       <c r="P4" s="308"/>
       <c r="Q4" s="308"/>
     </row>
-    <row r="5" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="315" t="s">
         <v>179</v>
       </c>
@@ -11202,7 +11209,7 @@
       <c r="P5" s="311"/>
       <c r="Q5" s="310"/>
     </row>
-    <row r="6" spans="1:19" s="120" customFormat="1" ht="18" customHeight="1">
+    <row r="6" spans="1:19" s="120" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="141" t="s">
         <v>78</v>
       </c>
@@ -11255,7 +11262,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18" customHeight="1">
+    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="121">
         <v>1</v>
       </c>
@@ -11290,7 +11297,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18" customHeight="1">
+    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="121">
         <v>2</v>
       </c>
@@ -11327,7 +11334,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18" customHeight="1">
+    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="144">
         <v>3</v>
       </c>
@@ -11359,7 +11366,7 @@
       <c r="Q9" s="165"/>
       <c r="R9" s="130"/>
     </row>
-    <row r="10" spans="1:19" ht="18" customHeight="1">
+    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="180">
         <v>4</v>
       </c>
@@ -11384,7 +11391,7 @@
       <c r="P10" s="179"/>
       <c r="Q10" s="182"/>
     </row>
-    <row r="11" spans="1:19" ht="18" customHeight="1">
+    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="144">
         <v>5</v>
       </c>
@@ -11419,7 +11426,7 @@
       </c>
       <c r="Q11" s="182"/>
     </row>
-    <row r="12" spans="1:19" ht="18" customHeight="1">
+    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="183">
         <v>6</v>
       </c>
@@ -11452,7 +11459,7 @@
       <c r="P12" s="179"/>
       <c r="Q12" s="182"/>
     </row>
-    <row r="13" spans="1:19" ht="18" customHeight="1">
+    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="144">
         <v>7</v>
       </c>
@@ -11483,7 +11490,7 @@
       </c>
       <c r="Q13" s="182"/>
     </row>
-    <row r="14" spans="1:19" ht="18" customHeight="1">
+    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="183">
         <v>8</v>
       </c>
@@ -11522,7 +11529,7 @@
       </c>
       <c r="Q14" s="182"/>
     </row>
-    <row r="15" spans="1:19" ht="18" customHeight="1">
+    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="144">
         <v>9</v>
       </c>
@@ -11547,7 +11554,7 @@
       <c r="P15" s="179"/>
       <c r="Q15" s="182"/>
     </row>
-    <row r="16" spans="1:19" ht="18" customHeight="1">
+    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="183">
         <v>10</v>
       </c>
@@ -11574,7 +11581,7 @@
       <c r="P16" s="179"/>
       <c r="Q16" s="182"/>
     </row>
-    <row r="17" spans="1:17" ht="18.75">
+    <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="144">
         <v>11</v>
       </c>
@@ -11613,7 +11620,7 @@
       </c>
       <c r="Q17" s="182"/>
     </row>
-    <row r="18" spans="1:17" ht="18" customHeight="1">
+    <row r="18" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="121">
         <v>12</v>
       </c>
@@ -11640,7 +11647,7 @@
       <c r="P18" s="179"/>
       <c r="Q18" s="182"/>
     </row>
-    <row r="19" spans="1:17" ht="18" customHeight="1">
+    <row r="19" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="184">
         <v>13</v>
       </c>
@@ -11665,7 +11672,7 @@
       <c r="P19" s="179"/>
       <c r="Q19" s="182"/>
     </row>
-    <row r="20" spans="1:17" ht="18" customHeight="1">
+    <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="185">
         <v>14</v>
       </c>
@@ -11686,7 +11693,7 @@
       <c r="P20" s="179"/>
       <c r="Q20" s="182"/>
     </row>
-    <row r="21" spans="1:17" ht="18" customHeight="1">
+    <row r="21" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="184">
         <v>15</v>
       </c>
@@ -11707,7 +11714,7 @@
       <c r="P21" s="179"/>
       <c r="Q21" s="182"/>
     </row>
-    <row r="22" spans="1:17" ht="18" customHeight="1">
+    <row r="22" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="184">
         <v>17</v>
       </c>
@@ -11732,7 +11739,7 @@
       <c r="P22" s="179"/>
       <c r="Q22" s="182"/>
     </row>
-    <row r="23" spans="1:17" ht="18" customHeight="1">
+    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="185">
         <v>18</v>
       </c>
@@ -11753,7 +11760,7 @@
       <c r="P23" s="179"/>
       <c r="Q23" s="182"/>
     </row>
-    <row r="24" spans="1:17" ht="18" customHeight="1">
+    <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="184">
         <v>19</v>
       </c>
@@ -11774,7 +11781,7 @@
       <c r="P24" s="179"/>
       <c r="Q24" s="182"/>
     </row>
-    <row r="25" spans="1:17" ht="18" customHeight="1">
+    <row r="25" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="186">
         <v>20</v>
       </c>
@@ -11795,7 +11802,7 @@
       <c r="P25" s="179"/>
       <c r="Q25" s="182"/>
     </row>
-    <row r="26" spans="1:17" ht="18" customHeight="1">
+    <row r="26" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="186">
         <v>21</v>
       </c>
@@ -11816,7 +11823,7 @@
       <c r="P26" s="179"/>
       <c r="Q26" s="182"/>
     </row>
-    <row r="27" spans="1:17" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="186">
         <v>22</v>
       </c>
@@ -11837,7 +11844,7 @@
       <c r="P27" s="179"/>
       <c r="Q27" s="182"/>
     </row>
-    <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
+    <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="303" t="s">
         <v>38</v>
       </c>
@@ -11897,7 +11904,7 @@
       </c>
       <c r="Q28" s="149"/>
     </row>
-    <row r="29" spans="1:17" ht="15.75">
+    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="63"/>
       <c r="B29" s="63"/>
       <c r="C29" s="63"/>
@@ -11907,7 +11914,7 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
     </row>
-    <row r="30" spans="1:17" ht="15.75">
+    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="63"/>
       <c r="B30" s="63"/>
       <c r="C30" s="54"/>
@@ -11919,7 +11926,7 @@
       <c r="J30" s="63"/>
       <c r="K30" s="63"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="63"/>
       <c r="B31" s="63"/>
       <c r="C31" s="54"/>
@@ -11928,7 +11935,7 @@
       <c r="G31" s="63"/>
       <c r="I31" s="63"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="63"/>
       <c r="B32" s="63"/>
       <c r="C32" s="54"/>
@@ -11937,7 +11944,7 @@
       <c r="G32" s="63"/>
       <c r="I32" s="63"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="63"/>
       <c r="B33" s="63"/>
       <c r="C33" s="54"/>
@@ -11946,7 +11953,7 @@
       <c r="G33" s="63"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="63"/>
       <c r="B34" s="63"/>
       <c r="C34" s="54"/>
@@ -11955,589 +11962,589 @@
       <c r="G34" s="63"/>
       <c r="I34" s="63"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
       <c r="B35" s="63"/>
       <c r="C35" s="54"/>
       <c r="D35" s="54"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="131"/>
       <c r="B36" s="131"/>
       <c r="C36" s="54"/>
       <c r="D36" s="54"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
       <c r="B38" s="63"/>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
       <c r="B40" s="63"/>
       <c r="C40" s="54"/>
       <c r="D40" s="54"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="63"/>
       <c r="B41" s="63"/>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="63"/>
       <c r="B42" s="63"/>
       <c r="C42" s="63"/>
       <c r="D42" s="63"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="63"/>
       <c r="B43" s="63"/>
       <c r="C43" s="63"/>
       <c r="D43" s="63"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
       <c r="B44" s="63"/>
       <c r="C44" s="63"/>
       <c r="D44" s="63"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
       <c r="B45" s="63"/>
       <c r="C45" s="63"/>
       <c r="D45" s="63"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
       <c r="B46" s="63"/>
       <c r="C46" s="63"/>
       <c r="D46" s="63"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="63"/>
       <c r="B47" s="63"/>
       <c r="C47" s="63"/>
       <c r="D47" s="63"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
       <c r="B48" s="63"/>
       <c r="C48" s="63"/>
       <c r="D48" s="63"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
       <c r="B49" s="63"/>
       <c r="C49" s="63"/>
       <c r="D49" s="63"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
       <c r="B50" s="63"/>
       <c r="C50" s="63"/>
       <c r="D50" s="63"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
       <c r="B51" s="63"/>
       <c r="C51" s="63"/>
       <c r="D51" s="63"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="63"/>
       <c r="B52" s="63"/>
       <c r="C52" s="63"/>
       <c r="D52" s="63"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="63"/>
       <c r="B53" s="63"/>
       <c r="C53" s="63"/>
       <c r="D53" s="63"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="63"/>
       <c r="B54" s="63"/>
       <c r="C54" s="63"/>
       <c r="D54" s="63"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="63"/>
       <c r="B55" s="63"/>
       <c r="C55" s="63"/>
       <c r="D55" s="63"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="63"/>
       <c r="B56" s="63"/>
       <c r="C56" s="63"/>
       <c r="D56" s="63"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="63"/>
       <c r="B57" s="63"/>
       <c r="C57" s="63"/>
       <c r="D57" s="63"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="63"/>
       <c r="B58" s="63"/>
       <c r="C58" s="63"/>
       <c r="D58" s="63"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="63"/>
       <c r="B59" s="63"/>
       <c r="C59" s="63"/>
       <c r="D59" s="63"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="63"/>
       <c r="B60" s="63"/>
       <c r="C60" s="63"/>
       <c r="D60" s="63"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="63"/>
       <c r="B61" s="63"/>
       <c r="C61" s="63"/>
       <c r="D61" s="63"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" s="63"/>
       <c r="D62" s="63"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="63"/>
       <c r="D63" s="63"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" s="63"/>
       <c r="D64" s="63"/>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="63"/>
       <c r="D65" s="63"/>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="63"/>
       <c r="D66" s="63"/>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="63"/>
       <c r="D67" s="63"/>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="63"/>
       <c r="D68" s="63"/>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="63"/>
       <c r="D69" s="63"/>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
     </row>
-    <row r="71" spans="3:4">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="63"/>
       <c r="D71" s="63"/>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="63"/>
       <c r="D72" s="63"/>
     </row>
-    <row r="73" spans="3:4">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="63"/>
       <c r="D73" s="63"/>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="63"/>
       <c r="D74" s="63"/>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="63"/>
       <c r="D75" s="63"/>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="63"/>
       <c r="D76" s="63"/>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="63"/>
       <c r="D77" s="63"/>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="63"/>
       <c r="D78" s="63"/>
     </row>
-    <row r="79" spans="3:4">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="63"/>
       <c r="D79" s="63"/>
     </row>
-    <row r="80" spans="3:4">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80" s="63"/>
       <c r="D80" s="63"/>
     </row>
-    <row r="81" spans="3:4">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="63"/>
       <c r="D81" s="63"/>
     </row>
-    <row r="82" spans="3:4">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="63"/>
       <c r="D82" s="63"/>
     </row>
-    <row r="83" spans="3:4">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" s="63"/>
       <c r="D83" s="63"/>
     </row>
-    <row r="84" spans="3:4">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84" s="63"/>
       <c r="D84" s="63"/>
     </row>
-    <row r="85" spans="3:4">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85" s="63"/>
       <c r="D85" s="63"/>
     </row>
-    <row r="86" spans="3:4">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86" s="63"/>
       <c r="D86" s="63"/>
     </row>
-    <row r="87" spans="3:4">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87" s="63"/>
       <c r="D87" s="63"/>
     </row>
-    <row r="88" spans="3:4">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="63"/>
       <c r="D88" s="63"/>
     </row>
-    <row r="89" spans="3:4">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89" s="63"/>
       <c r="D89" s="63"/>
     </row>
-    <row r="90" spans="3:4">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="63"/>
       <c r="D90" s="63"/>
     </row>
-    <row r="91" spans="3:4">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91" s="63"/>
       <c r="D91" s="63"/>
     </row>
-    <row r="92" spans="3:4">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92" s="63"/>
       <c r="D92" s="63"/>
     </row>
-    <row r="93" spans="3:4">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93" s="63"/>
       <c r="D93" s="63"/>
     </row>
-    <row r="94" spans="3:4">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94" s="63"/>
       <c r="D94" s="63"/>
     </row>
-    <row r="95" spans="3:4">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95" s="63"/>
       <c r="D95" s="63"/>
     </row>
-    <row r="96" spans="3:4">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96" s="63"/>
       <c r="D96" s="63"/>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="63"/>
       <c r="D97" s="63"/>
     </row>
-    <row r="98" spans="3:4">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="63"/>
       <c r="D98" s="63"/>
     </row>
-    <row r="99" spans="3:4">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="63"/>
       <c r="D99" s="63"/>
     </row>
-    <row r="100" spans="3:4">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="63"/>
       <c r="D100" s="63"/>
     </row>
-    <row r="101" spans="3:4">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="63"/>
       <c r="D101" s="63"/>
     </row>
-    <row r="102" spans="3:4">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="63"/>
       <c r="D102" s="63"/>
     </row>
-    <row r="103" spans="3:4">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="63"/>
       <c r="D103" s="63"/>
     </row>
-    <row r="104" spans="3:4">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="63"/>
       <c r="D104" s="63"/>
     </row>
-    <row r="105" spans="3:4">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="63"/>
       <c r="D105" s="63"/>
     </row>
-    <row r="106" spans="3:4">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="63"/>
       <c r="D106" s="63"/>
     </row>
-    <row r="107" spans="3:4">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="63"/>
       <c r="D107" s="63"/>
     </row>
-    <row r="108" spans="3:4">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="63"/>
       <c r="D108" s="63"/>
     </row>
-    <row r="109" spans="3:4">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="63"/>
       <c r="D109" s="63"/>
     </row>
-    <row r="110" spans="3:4">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="63"/>
       <c r="D110" s="63"/>
     </row>
-    <row r="111" spans="3:4">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="63"/>
       <c r="D111" s="63"/>
     </row>
-    <row r="112" spans="3:4">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112" s="63"/>
       <c r="D112" s="63"/>
     </row>
-    <row r="113" spans="3:4">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113" s="63"/>
       <c r="D113" s="63"/>
     </row>
-    <row r="114" spans="3:4">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="63"/>
       <c r="D114" s="63"/>
     </row>
-    <row r="115" spans="3:4">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="63"/>
       <c r="D115" s="63"/>
     </row>
-    <row r="116" spans="3:4">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116" s="63"/>
       <c r="D116" s="63"/>
     </row>
-    <row r="117" spans="3:4">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="63"/>
       <c r="D117" s="63"/>
     </row>
-    <row r="118" spans="3:4">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118" s="63"/>
       <c r="D118" s="63"/>
     </row>
-    <row r="119" spans="3:4">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119" s="63"/>
       <c r="D119" s="63"/>
     </row>
-    <row r="120" spans="3:4">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120" s="63"/>
       <c r="D120" s="63"/>
     </row>
-    <row r="121" spans="3:4">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121" s="63"/>
       <c r="D121" s="63"/>
     </row>
-    <row r="122" spans="3:4">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122" s="63"/>
       <c r="D122" s="63"/>
     </row>
-    <row r="123" spans="3:4">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123" s="63"/>
       <c r="D123" s="63"/>
     </row>
-    <row r="124" spans="3:4">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124" s="63"/>
       <c r="D124" s="63"/>
     </row>
-    <row r="125" spans="3:4">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125" s="63"/>
       <c r="D125" s="63"/>
     </row>
-    <row r="126" spans="3:4">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126" s="63"/>
       <c r="D126" s="63"/>
     </row>
-    <row r="127" spans="3:4">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127" s="63"/>
       <c r="D127" s="63"/>
     </row>
-    <row r="128" spans="3:4">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128" s="63"/>
       <c r="D128" s="63"/>
     </row>
-    <row r="129" spans="3:4">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129" s="63"/>
       <c r="D129" s="63"/>
     </row>
-    <row r="130" spans="3:4">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130" s="63"/>
       <c r="D130" s="63"/>
     </row>
-    <row r="131" spans="3:4">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131" s="63"/>
       <c r="D131" s="63"/>
     </row>
-    <row r="132" spans="3:4">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132" s="63"/>
       <c r="D132" s="63"/>
     </row>
-    <row r="133" spans="3:4">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133" s="63"/>
       <c r="D133" s="63"/>
     </row>
-    <row r="134" spans="3:4">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134" s="63"/>
       <c r="D134" s="63"/>
     </row>
-    <row r="135" spans="3:4">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135" s="63"/>
       <c r="D135" s="63"/>
     </row>
-    <row r="136" spans="3:4">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136" s="63"/>
       <c r="D136" s="63"/>
     </row>
-    <row r="137" spans="3:4">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137" s="63"/>
       <c r="D137" s="63"/>
     </row>
-    <row r="138" spans="3:4">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138" s="63"/>
       <c r="D138" s="63"/>
     </row>
-    <row r="139" spans="3:4">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139" s="63"/>
       <c r="D139" s="63"/>
     </row>
-    <row r="140" spans="3:4">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140" s="63"/>
       <c r="D140" s="63"/>
     </row>
-    <row r="141" spans="3:4">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141" s="63"/>
       <c r="D141" s="63"/>
     </row>
-    <row r="142" spans="3:4">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142" s="63"/>
       <c r="D142" s="63"/>
     </row>
-    <row r="143" spans="3:4">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143" s="63"/>
       <c r="D143" s="63"/>
     </row>
-    <row r="144" spans="3:4">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144" s="63"/>
       <c r="D144" s="63"/>
     </row>
-    <row r="145" spans="3:4">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145" s="63"/>
       <c r="D145" s="63"/>
     </row>
-    <row r="146" spans="3:4">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146" s="63"/>
       <c r="D146" s="63"/>
     </row>
-    <row r="147" spans="3:4">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147" s="63"/>
       <c r="D147" s="63"/>
     </row>
-    <row r="148" spans="3:4">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148" s="63"/>
       <c r="D148" s="63"/>
     </row>
-    <row r="149" spans="3:4">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149" s="63"/>
       <c r="D149" s="63"/>
     </row>
-    <row r="150" spans="3:4">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150" s="63"/>
       <c r="D150" s="63"/>
     </row>
-    <row r="151" spans="3:4">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151" s="63"/>
       <c r="D151" s="63"/>
     </row>
-    <row r="152" spans="3:4">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152" s="63"/>
       <c r="D152" s="63"/>
     </row>
-    <row r="153" spans="3:4">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153" s="63"/>
       <c r="D153" s="63"/>
     </row>
-    <row r="154" spans="3:4">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154" s="63"/>
       <c r="D154" s="63"/>
     </row>
-    <row r="155" spans="3:4">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155" s="63"/>
       <c r="D155" s="63"/>
     </row>
-    <row r="156" spans="3:4">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156" s="63"/>
       <c r="D156" s="63"/>
     </row>
-    <row r="157" spans="3:4">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157" s="63"/>
       <c r="D157" s="63"/>
     </row>
-    <row r="158" spans="3:4">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158" s="63"/>
       <c r="D158" s="63"/>
     </row>
-    <row r="159" spans="3:4">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159" s="63"/>
       <c r="D159" s="63"/>
     </row>
-    <row r="160" spans="3:4">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160" s="63"/>
       <c r="D160" s="63"/>
     </row>
-    <row r="161" spans="3:4">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161" s="63"/>
       <c r="D161" s="63"/>
     </row>
-    <row r="162" spans="3:4">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="63"/>
       <c r="D162" s="63"/>
     </row>
-    <row r="163" spans="3:4">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163" s="63"/>
       <c r="D163" s="63"/>
     </row>
-    <row r="164" spans="3:4">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164" s="63"/>
       <c r="D164" s="63"/>
     </row>
-    <row r="165" spans="3:4">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165" s="63"/>
       <c r="D165" s="63"/>
     </row>
-    <row r="166" spans="3:4">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166" s="63"/>
       <c r="D166" s="63"/>
     </row>
-    <row r="167" spans="3:4">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167" s="63"/>
       <c r="D167" s="63"/>
     </row>
@@ -12560,14 +12567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="219"/>
     <col min="2" max="2" width="26" style="219" customWidth="1"/>
@@ -12575,13 +12582,13 @@
     <col min="4" max="16384" width="9.140625" style="219"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.95" customHeight="1">
+    <row r="1" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="317" t="s">
         <v>168</v>
       </c>
       <c r="C1" s="317"/>
     </row>
-    <row r="2" spans="2:3" ht="15.95" customHeight="1">
+    <row r="2" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="242" t="s">
         <v>87</v>
       </c>
@@ -12589,7 +12596,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.95" customHeight="1">
+    <row r="3" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="242" t="s">
         <v>88</v>
       </c>
@@ -12597,7 +12604,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15.95" customHeight="1">
+    <row r="4" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="242" t="s">
         <v>89</v>
       </c>
@@ -12605,7 +12612,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.95" customHeight="1">
+    <row r="5" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="242" t="s">
         <v>90</v>
       </c>
@@ -12613,7 +12620,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.95" customHeight="1">
+    <row r="6" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="242" t="s">
         <v>91</v>
       </c>
@@ -12621,7 +12628,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.95" customHeight="1">
+    <row r="7" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="242" t="s">
         <v>92</v>
       </c>
@@ -12629,7 +12636,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15.95" customHeight="1">
+    <row r="8" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="242" t="s">
         <v>93</v>
       </c>
@@ -12637,7 +12644,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15.95" customHeight="1">
+    <row r="9" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="242" t="s">
         <v>94</v>
       </c>
@@ -12645,7 +12652,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15.95" customHeight="1">
+    <row r="10" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="242" t="s">
         <v>95</v>
       </c>
@@ -12653,7 +12660,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15.95" customHeight="1">
+    <row r="11" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="242" t="s">
         <v>96</v>
       </c>
@@ -12661,7 +12668,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15.95" customHeight="1">
+    <row r="12" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="242" t="s">
         <v>97</v>
       </c>
@@ -12669,7 +12676,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15.95" customHeight="1">
+    <row r="13" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="242" t="s">
         <v>98</v>
       </c>
@@ -12677,7 +12684,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15.95" customHeight="1">
+    <row r="14" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="242" t="s">
         <v>99</v>
       </c>
@@ -12685,7 +12692,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15.95" customHeight="1">
+    <row r="15" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="242" t="s">
         <v>100</v>
       </c>
@@ -12693,7 +12700,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="15.95" customHeight="1">
+    <row r="16" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="242" t="s">
         <v>101</v>
       </c>
@@ -12701,7 +12708,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.95" customHeight="1">
+    <row r="17" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="242" t="s">
         <v>102</v>
       </c>
@@ -12709,7 +12716,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="15.95" customHeight="1">
+    <row r="18" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="242" t="s">
         <v>103</v>
       </c>
@@ -12717,7 +12724,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15.95" customHeight="1">
+    <row r="19" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="242" t="s">
         <v>104</v>
       </c>
@@ -12725,7 +12732,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15.95" customHeight="1">
+    <row r="20" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="242" t="s">
         <v>105</v>
       </c>
@@ -12733,7 +12740,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15.95" customHeight="1">
+    <row r="21" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="242" t="s">
         <v>106</v>
       </c>
@@ -12741,7 +12748,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15.95" customHeight="1">
+    <row r="22" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="242" t="s">
         <v>107</v>
       </c>
@@ -12749,7 +12756,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="15.95" customHeight="1">
+    <row r="23" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="242" t="s">
         <v>108</v>
       </c>
@@ -12757,7 +12764,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C24" s="219">
         <f>SUM(C3:C23)</f>
         <v>332000</v>
